--- a/data/tweets.xlsx
+++ b/data/tweets.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="433">
   <si>
     <t>index</t>
   </si>
@@ -616,6 +616,12 @@
     <t>Me and zooey drinking alphabetical order’s on facetime with each other</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>joy</t>
+  </si>
+  <si>
     <t>61</t>
   </si>
   <si>
@@ -623,6 +629,12 @@
   </si>
   <si>
     <t>iPhone Users 🤝 constantly posting screenshot of songs they listen to, to brag.</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>anger</t>
   </si>
   <si>
     <t>62</t>
@@ -645,6 +657,9 @@
 #DisabilityTwitter #ElectricVehicles</t>
   </si>
   <si>
+    <t>optimism</t>
+  </si>
+  <si>
     <t>64</t>
   </si>
   <si>
@@ -654,6 +669,9 @@
     <t>The metaverse just looks ugly. Like if this is the future why does it look like something made in 2006</t>
   </si>
   <si>
+    <t>sadness</t>
+  </si>
+  <si>
     <t>65</t>
   </si>
   <si>
@@ -661,6 +679,9 @@
   </si>
   <si>
     <t>all i want is to be able to play minecraft on my macbook with my xbox controller.</t>
+  </si>
+  <si>
+    <t>neutral</t>
   </si>
   <si>
     <t>66</t>
@@ -2423,874 +2444,1114 @@
       <c r="C62" s="6" t="s">
         <v>188</v>
       </c>
+      <c r="D62" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>200</v>
+        <v>205</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>206</v>
+        <v>213</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>209</v>
+        <v>216</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>212</v>
+      <c r="E70" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>224</v>
+        <v>231</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>227</v>
+        <v>234</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>230</v>
+        <v>237</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>236</v>
+        <v>243</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>239</v>
+        <v>246</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>242</v>
+        <v>249</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>245</v>
+        <v>252</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>251</v>
+        <v>258</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>254</v>
+        <v>261</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>257</v>
+        <v>264</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>260</v>
+        <v>267</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>263</v>
+        <v>270</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>269</v>
+        <v>276</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>272</v>
+        <v>279</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>275</v>
+        <v>282</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>278</v>
+        <v>285</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>281</v>
+        <v>288</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>284</v>
+        <v>291</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>287</v>
+        <v>294</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>290</v>
+        <v>297</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>293</v>
+        <v>300</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>296</v>
+        <v>303</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>299</v>
+        <v>306</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>302</v>
+        <v>309</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>305</v>
+        <v>312</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">

--- a/data/tweets.xlsx
+++ b/data/tweets.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="433">
   <si>
     <t>index</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>just put a CD into my MacBook to burn it and my computer is literally trembling with reawakened recognition 😆</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>joy</t>
   </si>
   <si>
     <t>1</t>
@@ -67,6 +73,12 @@
 Also been watching mock interviews  :)</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>sadness</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -74,6 +86,9 @@
   </si>
   <si>
     <t>Finally managed to move my business email from google hosting to another host. So stressful and difficult. The whole internet is so hard! At least the metaverse is coming, I'm confident that will make everything easy and good, phew.</t>
+  </si>
+  <si>
+    <t>optimism</t>
   </si>
   <si>
     <t>4</t>
@@ -96,6 +111,9 @@
 #Metroabandonsebb</t>
   </si>
   <si>
+    <t>anger</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -122,6 +140,9 @@
   <si>
     <t>Ayo, does anyone knows a good game framework like XNA(that isn't java or python).
 And no, not talking about game engines like Unity, Godot or Unreal</t>
+  </si>
+  <si>
+    <t>neutral</t>
   </si>
   <si>
     <t>9</t>
@@ -616,12 +637,6 @@
     <t>Me and zooey drinking alphabetical order’s on facetime with each other</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>joy</t>
-  </si>
-  <si>
     <t>61</t>
   </si>
   <si>
@@ -629,12 +644,6 @@
   </si>
   <si>
     <t>iPhone Users 🤝 constantly posting screenshot of songs they listen to, to brag.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>anger</t>
   </si>
   <si>
     <t>62</t>
@@ -657,9 +666,6 @@
 #DisabilityTwitter #ElectricVehicles</t>
   </si>
   <si>
-    <t>optimism</t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
@@ -669,9 +675,6 @@
     <t>The metaverse just looks ugly. Like if this is the future why does it look like something made in 2006</t>
   </si>
   <si>
-    <t>sadness</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
@@ -679,9 +682,6 @@
   </si>
   <si>
     <t>all i want is to be able to play minecraft on my macbook with my xbox controller.</t>
-  </si>
-  <si>
-    <t>neutral</t>
   </si>
   <si>
     <t>66</t>
@@ -1501,7 +1501,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1520,6 +1520,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1784,756 +1787,1116 @@
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>104</v>
+        <v>111</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>122</v>
+        <v>129</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>131</v>
+        <v>138</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>134</v>
+        <v>141</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>137</v>
+        <v>144</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>149</v>
+        <v>156</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>155</v>
+        <v>162</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>158</v>
+        <v>165</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>179</v>
+        <v>186</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>182</v>
+        <v>189</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>185</v>
+        <v>192</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
@@ -2547,10 +2910,10 @@
         <v>213</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
@@ -2564,10 +2927,10 @@
         <v>216</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
@@ -2581,10 +2944,10 @@
         <v>219</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
@@ -2598,10 +2961,10 @@
         <v>222</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
@@ -2615,10 +2978,10 @@
         <v>225</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
@@ -2632,10 +2995,10 @@
         <v>228</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
@@ -2649,10 +3012,10 @@
         <v>231</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
@@ -2666,10 +3029,10 @@
         <v>234</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
@@ -2683,10 +3046,10 @@
         <v>237</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
@@ -2700,10 +3063,10 @@
         <v>240</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
@@ -2717,10 +3080,10 @@
         <v>243</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
@@ -2734,10 +3097,10 @@
         <v>246</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
@@ -2751,10 +3114,10 @@
         <v>249</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
@@ -2768,10 +3131,10 @@
         <v>252</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
@@ -2785,10 +3148,10 @@
         <v>255</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
@@ -2802,10 +3165,10 @@
         <v>258</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
@@ -2819,10 +3182,10 @@
         <v>261</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
@@ -2836,10 +3199,10 @@
         <v>264</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
@@ -2853,10 +3216,10 @@
         <v>267</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
@@ -2870,10 +3233,10 @@
         <v>270</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
@@ -2887,10 +3250,10 @@
         <v>273</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
@@ -2904,10 +3267,10 @@
         <v>276</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
@@ -2921,10 +3284,10 @@
         <v>279</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
@@ -2938,10 +3301,10 @@
         <v>282</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
@@ -2955,10 +3318,10 @@
         <v>285</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
@@ -2972,10 +3335,10 @@
         <v>288</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
@@ -2989,10 +3352,10 @@
         <v>291</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
@@ -3006,10 +3369,10 @@
         <v>294</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
@@ -3023,10 +3386,10 @@
         <v>297</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
@@ -3040,10 +3403,10 @@
         <v>300</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
@@ -3057,10 +3420,10 @@
         <v>303</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
@@ -3074,10 +3437,10 @@
         <v>306</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
@@ -3091,10 +3454,10 @@
         <v>309</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
@@ -3108,10 +3471,10 @@
         <v>312</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
@@ -3124,6 +3487,12 @@
       <c r="C102" s="6" t="s">
         <v>315</v>
       </c>
+      <c r="D102" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="4" t="s">
@@ -3135,6 +3504,12 @@
       <c r="C103" s="6" t="s">
         <v>318</v>
       </c>
+      <c r="D103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="4" t="s">
@@ -3146,6 +3521,12 @@
       <c r="C104" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="D104" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="4" t="s">
@@ -3157,6 +3538,12 @@
       <c r="C105" s="6" t="s">
         <v>324</v>
       </c>
+      <c r="D105" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="4" t="s">
@@ -3168,6 +3555,12 @@
       <c r="C106" s="6" t="s">
         <v>327</v>
       </c>
+      <c r="D106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="4" t="s">
@@ -3179,6 +3572,12 @@
       <c r="C107" s="6" t="s">
         <v>330</v>
       </c>
+      <c r="D107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" s="4" t="s">
@@ -3190,6 +3589,12 @@
       <c r="C108" s="6" t="s">
         <v>333</v>
       </c>
+      <c r="D108" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="4" t="s">
@@ -3201,6 +3606,12 @@
       <c r="C109" s="6" t="s">
         <v>336</v>
       </c>
+      <c r="D109" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="4" t="s">
@@ -3212,6 +3623,12 @@
       <c r="C110" s="6" t="s">
         <v>339</v>
       </c>
+      <c r="D110" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="4" t="s">
@@ -3223,6 +3640,12 @@
       <c r="C111" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="D111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="4" t="s">
@@ -3234,6 +3657,12 @@
       <c r="C112" s="6" t="s">
         <v>345</v>
       </c>
+      <c r="D112" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" s="4" t="s">
@@ -3245,6 +3674,12 @@
       <c r="C113" s="6" t="s">
         <v>348</v>
       </c>
+      <c r="D113" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="4" t="s">
@@ -3256,6 +3691,12 @@
       <c r="C114" s="6" t="s">
         <v>351</v>
       </c>
+      <c r="D114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="4" t="s">
@@ -3267,6 +3708,12 @@
       <c r="C115" s="6" t="s">
         <v>354</v>
       </c>
+      <c r="D115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" s="4" t="s">
@@ -3278,6 +3725,12 @@
       <c r="C116" s="6" t="s">
         <v>357</v>
       </c>
+      <c r="D116" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="4" t="s">
@@ -3289,6 +3742,12 @@
       <c r="C117" s="6" t="s">
         <v>360</v>
       </c>
+      <c r="D117" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" s="4" t="s">
@@ -3300,6 +3759,12 @@
       <c r="C118" s="6" t="s">
         <v>363</v>
       </c>
+      <c r="D118" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" s="4" t="s">
@@ -3311,6 +3776,12 @@
       <c r="C119" s="6" t="s">
         <v>366</v>
       </c>
+      <c r="D119" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="4" t="s">
@@ -3322,6 +3793,12 @@
       <c r="C120" s="6" t="s">
         <v>369</v>
       </c>
+      <c r="D120" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="4" t="s">
@@ -3333,6 +3810,12 @@
       <c r="C121" s="6" t="s">
         <v>372</v>
       </c>
+      <c r="D121" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="4" t="s">
@@ -3344,6 +3827,12 @@
       <c r="C122" s="6" t="s">
         <v>375</v>
       </c>
+      <c r="D122" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="4" t="s">
@@ -3355,6 +3844,12 @@
       <c r="C123" s="6" t="s">
         <v>378</v>
       </c>
+      <c r="D123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="4" t="s">
@@ -3366,6 +3861,12 @@
       <c r="C124" s="6" t="s">
         <v>381</v>
       </c>
+      <c r="D124" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" s="4" t="s">
@@ -3377,6 +3878,12 @@
       <c r="C125" s="6" t="s">
         <v>384</v>
       </c>
+      <c r="D125" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="4" t="s">
@@ -3388,6 +3895,12 @@
       <c r="C126" s="6" t="s">
         <v>387</v>
       </c>
+      <c r="D126" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" s="4" t="s">
@@ -3399,6 +3912,12 @@
       <c r="C127" s="6" t="s">
         <v>390</v>
       </c>
+      <c r="D127" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="4" t="s">
@@ -3410,6 +3929,12 @@
       <c r="C128" s="6" t="s">
         <v>393</v>
       </c>
+      <c r="D128" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="4" t="s">
@@ -3421,6 +3946,12 @@
       <c r="C129" s="6" t="s">
         <v>396</v>
       </c>
+      <c r="D129" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="4" t="s">
@@ -3432,6 +3963,12 @@
       <c r="C130" s="6" t="s">
         <v>399</v>
       </c>
+      <c r="D130" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" s="4" t="s">
@@ -3443,6 +3980,12 @@
       <c r="C131" s="6" t="s">
         <v>402</v>
       </c>
+      <c r="D131" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="4" t="s">
@@ -3454,6 +3997,12 @@
       <c r="C132" s="6" t="s">
         <v>405</v>
       </c>
+      <c r="D132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="4" t="s">
@@ -3465,6 +4014,12 @@
       <c r="C133" s="6" t="s">
         <v>408</v>
       </c>
+      <c r="D133" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="4" t="s">
@@ -3476,6 +4031,12 @@
       <c r="C134" s="6" t="s">
         <v>411</v>
       </c>
+      <c r="D134" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" s="4" t="s">
@@ -3487,6 +4048,12 @@
       <c r="C135" s="6" t="s">
         <v>414</v>
       </c>
+      <c r="D135" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="4" t="s">
@@ -3498,6 +4065,12 @@
       <c r="C136" s="6" t="s">
         <v>417</v>
       </c>
+      <c r="D136" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="4" t="s">
@@ -3509,6 +4082,12 @@
       <c r="C137" s="6" t="s">
         <v>420</v>
       </c>
+      <c r="D137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" s="4" t="s">
@@ -3520,6 +4099,12 @@
       <c r="C138" s="6" t="s">
         <v>423</v>
       </c>
+      <c r="D138" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" s="4" t="s">
@@ -3531,6 +4116,12 @@
       <c r="C139" s="6" t="s">
         <v>426</v>
       </c>
+      <c r="D139" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="4" t="s">
@@ -3542,6 +4133,12 @@
       <c r="C140" s="6" t="s">
         <v>429</v>
       </c>
+      <c r="D140" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" s="4" t="s">
@@ -3553,2583 +4150,2589 @@
       <c r="C141" s="6" t="s">
         <v>432</v>
       </c>
+      <c r="D141" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="C142" s="7"/>
+      <c r="C142" s="8"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="C143" s="7"/>
+      <c r="C143" s="8"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="C144" s="7"/>
+      <c r="C144" s="8"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="C145" s="7"/>
+      <c r="C145" s="8"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="C146" s="7"/>
+      <c r="C146" s="8"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="C147" s="7"/>
+      <c r="C147" s="8"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="C148" s="7"/>
+      <c r="C148" s="8"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="C149" s="7"/>
+      <c r="C149" s="8"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="C150" s="7"/>
+      <c r="C150" s="8"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="C151" s="7"/>
+      <c r="C151" s="8"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="C152" s="7"/>
+      <c r="C152" s="8"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="C153" s="7"/>
+      <c r="C153" s="8"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="C154" s="7"/>
+      <c r="C154" s="8"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="C155" s="7"/>
+      <c r="C155" s="8"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="C156" s="7"/>
+      <c r="C156" s="8"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="C157" s="7"/>
+      <c r="C157" s="8"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="C158" s="7"/>
+      <c r="C158" s="8"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="C159" s="7"/>
+      <c r="C159" s="8"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="C160" s="7"/>
+      <c r="C160" s="8"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="C161" s="7"/>
+      <c r="C161" s="8"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="C162" s="7"/>
+      <c r="C162" s="8"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="C163" s="7"/>
+      <c r="C163" s="8"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="C164" s="7"/>
+      <c r="C164" s="8"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="C165" s="7"/>
+      <c r="C165" s="8"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="C166" s="7"/>
+      <c r="C166" s="8"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="C167" s="7"/>
+      <c r="C167" s="8"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="C168" s="7"/>
+      <c r="C168" s="8"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="C169" s="7"/>
+      <c r="C169" s="8"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="C170" s="7"/>
+      <c r="C170" s="8"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="C171" s="7"/>
+      <c r="C171" s="8"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="C172" s="7"/>
+      <c r="C172" s="8"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="C173" s="7"/>
+      <c r="C173" s="8"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="C174" s="7"/>
+      <c r="C174" s="8"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="C175" s="7"/>
+      <c r="C175" s="8"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="C176" s="7"/>
+      <c r="C176" s="8"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="C177" s="7"/>
+      <c r="C177" s="8"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="C178" s="7"/>
+      <c r="C178" s="8"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="C179" s="7"/>
+      <c r="C179" s="8"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="C180" s="7"/>
+      <c r="C180" s="8"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="C181" s="7"/>
+      <c r="C181" s="8"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="C182" s="7"/>
+      <c r="C182" s="8"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="C183" s="7"/>
+      <c r="C183" s="8"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="C184" s="7"/>
+      <c r="C184" s="8"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="C185" s="7"/>
+      <c r="C185" s="8"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="C186" s="7"/>
+      <c r="C186" s="8"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="C187" s="7"/>
+      <c r="C187" s="8"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="C188" s="7"/>
+      <c r="C188" s="8"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="C189" s="7"/>
+      <c r="C189" s="8"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="C190" s="7"/>
+      <c r="C190" s="8"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="C191" s="7"/>
+      <c r="C191" s="8"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="C192" s="7"/>
+      <c r="C192" s="8"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="C193" s="7"/>
+      <c r="C193" s="8"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="C194" s="7"/>
+      <c r="C194" s="8"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="C195" s="7"/>
+      <c r="C195" s="8"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="C196" s="7"/>
+      <c r="C196" s="8"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="C197" s="7"/>
+      <c r="C197" s="8"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="C198" s="7"/>
+      <c r="C198" s="8"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="C199" s="7"/>
+      <c r="C199" s="8"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="C200" s="7"/>
+      <c r="C200" s="8"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="C201" s="7"/>
+      <c r="C201" s="8"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="C202" s="7"/>
+      <c r="C202" s="8"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="C203" s="7"/>
+      <c r="C203" s="8"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="C204" s="7"/>
+      <c r="C204" s="8"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="C205" s="7"/>
+      <c r="C205" s="8"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="C206" s="7"/>
+      <c r="C206" s="8"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="C207" s="7"/>
+      <c r="C207" s="8"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="C208" s="7"/>
+      <c r="C208" s="8"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="C209" s="7"/>
+      <c r="C209" s="8"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="C210" s="7"/>
+      <c r="C210" s="8"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="C211" s="7"/>
+      <c r="C211" s="8"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="C212" s="7"/>
+      <c r="C212" s="8"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="C213" s="7"/>
+      <c r="C213" s="8"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="C214" s="7"/>
+      <c r="C214" s="8"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="C215" s="7"/>
+      <c r="C215" s="8"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="C216" s="7"/>
+      <c r="C216" s="8"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="C217" s="7"/>
+      <c r="C217" s="8"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="C218" s="7"/>
+      <c r="C218" s="8"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="C219" s="7"/>
+      <c r="C219" s="8"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="C220" s="7"/>
+      <c r="C220" s="8"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
-      <c r="C221" s="7"/>
+      <c r="C221" s="8"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
-      <c r="C222" s="7"/>
+      <c r="C222" s="8"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
-      <c r="C223" s="7"/>
+      <c r="C223" s="8"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
-      <c r="C224" s="7"/>
+      <c r="C224" s="8"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
-      <c r="C225" s="7"/>
+      <c r="C225" s="8"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
-      <c r="C226" s="7"/>
+      <c r="C226" s="8"/>
     </row>
     <row r="227" ht="14.25" customHeight="1">
-      <c r="C227" s="7"/>
+      <c r="C227" s="8"/>
     </row>
     <row r="228" ht="14.25" customHeight="1">
-      <c r="C228" s="7"/>
+      <c r="C228" s="8"/>
     </row>
     <row r="229" ht="14.25" customHeight="1">
-      <c r="C229" s="7"/>
+      <c r="C229" s="8"/>
     </row>
     <row r="230" ht="14.25" customHeight="1">
-      <c r="C230" s="7"/>
+      <c r="C230" s="8"/>
     </row>
     <row r="231" ht="14.25" customHeight="1">
-      <c r="C231" s="7"/>
+      <c r="C231" s="8"/>
     </row>
     <row r="232" ht="14.25" customHeight="1">
-      <c r="C232" s="7"/>
+      <c r="C232" s="8"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
-      <c r="C233" s="7"/>
+      <c r="C233" s="8"/>
     </row>
     <row r="234" ht="14.25" customHeight="1">
-      <c r="C234" s="7"/>
+      <c r="C234" s="8"/>
     </row>
     <row r="235" ht="14.25" customHeight="1">
-      <c r="C235" s="7"/>
+      <c r="C235" s="8"/>
     </row>
     <row r="236" ht="14.25" customHeight="1">
-      <c r="C236" s="7"/>
+      <c r="C236" s="8"/>
     </row>
     <row r="237" ht="14.25" customHeight="1">
-      <c r="C237" s="7"/>
+      <c r="C237" s="8"/>
     </row>
     <row r="238" ht="14.25" customHeight="1">
-      <c r="C238" s="7"/>
+      <c r="C238" s="8"/>
     </row>
     <row r="239" ht="14.25" customHeight="1">
-      <c r="C239" s="7"/>
+      <c r="C239" s="8"/>
     </row>
     <row r="240" ht="14.25" customHeight="1">
-      <c r="C240" s="7"/>
+      <c r="C240" s="8"/>
     </row>
     <row r="241" ht="14.25" customHeight="1">
-      <c r="C241" s="7"/>
+      <c r="C241" s="8"/>
     </row>
     <row r="242" ht="14.25" customHeight="1">
-      <c r="C242" s="7"/>
+      <c r="C242" s="8"/>
     </row>
     <row r="243" ht="14.25" customHeight="1">
-      <c r="C243" s="7"/>
+      <c r="C243" s="8"/>
     </row>
     <row r="244" ht="14.25" customHeight="1">
-      <c r="C244" s="7"/>
+      <c r="C244" s="8"/>
     </row>
     <row r="245" ht="14.25" customHeight="1">
-      <c r="C245" s="7"/>
+      <c r="C245" s="8"/>
     </row>
     <row r="246" ht="14.25" customHeight="1">
-      <c r="C246" s="7"/>
+      <c r="C246" s="8"/>
     </row>
     <row r="247" ht="14.25" customHeight="1">
-      <c r="C247" s="7"/>
+      <c r="C247" s="8"/>
     </row>
     <row r="248" ht="14.25" customHeight="1">
-      <c r="C248" s="7"/>
+      <c r="C248" s="8"/>
     </row>
     <row r="249" ht="14.25" customHeight="1">
-      <c r="C249" s="7"/>
+      <c r="C249" s="8"/>
     </row>
     <row r="250" ht="14.25" customHeight="1">
-      <c r="C250" s="7"/>
+      <c r="C250" s="8"/>
     </row>
     <row r="251" ht="14.25" customHeight="1">
-      <c r="C251" s="7"/>
+      <c r="C251" s="8"/>
     </row>
     <row r="252" ht="14.25" customHeight="1">
-      <c r="C252" s="7"/>
+      <c r="C252" s="8"/>
     </row>
     <row r="253" ht="14.25" customHeight="1">
-      <c r="C253" s="7"/>
+      <c r="C253" s="8"/>
     </row>
     <row r="254" ht="14.25" customHeight="1">
-      <c r="C254" s="7"/>
+      <c r="C254" s="8"/>
     </row>
     <row r="255" ht="14.25" customHeight="1">
-      <c r="C255" s="7"/>
+      <c r="C255" s="8"/>
     </row>
     <row r="256" ht="14.25" customHeight="1">
-      <c r="C256" s="7"/>
+      <c r="C256" s="8"/>
     </row>
     <row r="257" ht="14.25" customHeight="1">
-      <c r="C257" s="7"/>
+      <c r="C257" s="8"/>
     </row>
     <row r="258" ht="14.25" customHeight="1">
-      <c r="C258" s="7"/>
+      <c r="C258" s="8"/>
     </row>
     <row r="259" ht="14.25" customHeight="1">
-      <c r="C259" s="7"/>
+      <c r="C259" s="8"/>
     </row>
     <row r="260" ht="14.25" customHeight="1">
-      <c r="C260" s="7"/>
+      <c r="C260" s="8"/>
     </row>
     <row r="261" ht="14.25" customHeight="1">
-      <c r="C261" s="7"/>
+      <c r="C261" s="8"/>
     </row>
     <row r="262" ht="14.25" customHeight="1">
-      <c r="C262" s="7"/>
+      <c r="C262" s="8"/>
     </row>
     <row r="263" ht="14.25" customHeight="1">
-      <c r="C263" s="7"/>
+      <c r="C263" s="8"/>
     </row>
     <row r="264" ht="14.25" customHeight="1">
-      <c r="C264" s="7"/>
+      <c r="C264" s="8"/>
     </row>
     <row r="265" ht="14.25" customHeight="1">
-      <c r="C265" s="7"/>
+      <c r="C265" s="8"/>
     </row>
     <row r="266" ht="14.25" customHeight="1">
-      <c r="C266" s="7"/>
+      <c r="C266" s="8"/>
     </row>
     <row r="267" ht="14.25" customHeight="1">
-      <c r="C267" s="7"/>
+      <c r="C267" s="8"/>
     </row>
     <row r="268" ht="14.25" customHeight="1">
-      <c r="C268" s="7"/>
+      <c r="C268" s="8"/>
     </row>
     <row r="269" ht="14.25" customHeight="1">
-      <c r="C269" s="7"/>
+      <c r="C269" s="8"/>
     </row>
     <row r="270" ht="14.25" customHeight="1">
-      <c r="C270" s="7"/>
+      <c r="C270" s="8"/>
     </row>
     <row r="271" ht="14.25" customHeight="1">
-      <c r="C271" s="7"/>
+      <c r="C271" s="8"/>
     </row>
     <row r="272" ht="14.25" customHeight="1">
-      <c r="C272" s="7"/>
+      <c r="C272" s="8"/>
     </row>
     <row r="273" ht="14.25" customHeight="1">
-      <c r="C273" s="7"/>
+      <c r="C273" s="8"/>
     </row>
     <row r="274" ht="14.25" customHeight="1">
-      <c r="C274" s="7"/>
+      <c r="C274" s="8"/>
     </row>
     <row r="275" ht="14.25" customHeight="1">
-      <c r="C275" s="7"/>
+      <c r="C275" s="8"/>
     </row>
     <row r="276" ht="14.25" customHeight="1">
-      <c r="C276" s="7"/>
+      <c r="C276" s="8"/>
     </row>
     <row r="277" ht="14.25" customHeight="1">
-      <c r="C277" s="7"/>
+      <c r="C277" s="8"/>
     </row>
     <row r="278" ht="14.25" customHeight="1">
-      <c r="C278" s="7"/>
+      <c r="C278" s="8"/>
     </row>
     <row r="279" ht="14.25" customHeight="1">
-      <c r="C279" s="7"/>
+      <c r="C279" s="8"/>
     </row>
     <row r="280" ht="14.25" customHeight="1">
-      <c r="C280" s="7"/>
+      <c r="C280" s="8"/>
     </row>
     <row r="281" ht="14.25" customHeight="1">
-      <c r="C281" s="7"/>
+      <c r="C281" s="8"/>
     </row>
     <row r="282" ht="14.25" customHeight="1">
-      <c r="C282" s="7"/>
+      <c r="C282" s="8"/>
     </row>
     <row r="283" ht="14.25" customHeight="1">
-      <c r="C283" s="7"/>
+      <c r="C283" s="8"/>
     </row>
     <row r="284" ht="14.25" customHeight="1">
-      <c r="C284" s="7"/>
+      <c r="C284" s="8"/>
     </row>
     <row r="285" ht="14.25" customHeight="1">
-      <c r="C285" s="7"/>
+      <c r="C285" s="8"/>
     </row>
     <row r="286" ht="14.25" customHeight="1">
-      <c r="C286" s="7"/>
+      <c r="C286" s="8"/>
     </row>
     <row r="287" ht="14.25" customHeight="1">
-      <c r="C287" s="7"/>
+      <c r="C287" s="8"/>
     </row>
     <row r="288" ht="14.25" customHeight="1">
-      <c r="C288" s="7"/>
+      <c r="C288" s="8"/>
     </row>
     <row r="289" ht="14.25" customHeight="1">
-      <c r="C289" s="7"/>
+      <c r="C289" s="8"/>
     </row>
     <row r="290" ht="14.25" customHeight="1">
-      <c r="C290" s="7"/>
+      <c r="C290" s="8"/>
     </row>
     <row r="291" ht="14.25" customHeight="1">
-      <c r="C291" s="7"/>
+      <c r="C291" s="8"/>
     </row>
     <row r="292" ht="14.25" customHeight="1">
-      <c r="C292" s="7"/>
+      <c r="C292" s="8"/>
     </row>
     <row r="293" ht="14.25" customHeight="1">
-      <c r="C293" s="7"/>
+      <c r="C293" s="8"/>
     </row>
     <row r="294" ht="14.25" customHeight="1">
-      <c r="C294" s="7"/>
+      <c r="C294" s="8"/>
     </row>
     <row r="295" ht="14.25" customHeight="1">
-      <c r="C295" s="7"/>
+      <c r="C295" s="8"/>
     </row>
     <row r="296" ht="14.25" customHeight="1">
-      <c r="C296" s="7"/>
+      <c r="C296" s="8"/>
     </row>
     <row r="297" ht="14.25" customHeight="1">
-      <c r="C297" s="7"/>
+      <c r="C297" s="8"/>
     </row>
     <row r="298" ht="14.25" customHeight="1">
-      <c r="C298" s="7"/>
+      <c r="C298" s="8"/>
     </row>
     <row r="299" ht="14.25" customHeight="1">
-      <c r="C299" s="7"/>
+      <c r="C299" s="8"/>
     </row>
     <row r="300" ht="14.25" customHeight="1">
-      <c r="C300" s="7"/>
+      <c r="C300" s="8"/>
     </row>
     <row r="301" ht="14.25" customHeight="1">
-      <c r="C301" s="7"/>
+      <c r="C301" s="8"/>
     </row>
     <row r="302" ht="14.25" customHeight="1">
-      <c r="C302" s="7"/>
+      <c r="C302" s="8"/>
     </row>
     <row r="303" ht="14.25" customHeight="1">
-      <c r="C303" s="7"/>
+      <c r="C303" s="8"/>
     </row>
     <row r="304" ht="14.25" customHeight="1">
-      <c r="C304" s="7"/>
+      <c r="C304" s="8"/>
     </row>
     <row r="305" ht="14.25" customHeight="1">
-      <c r="C305" s="7"/>
+      <c r="C305" s="8"/>
     </row>
     <row r="306" ht="14.25" customHeight="1">
-      <c r="C306" s="7"/>
+      <c r="C306" s="8"/>
     </row>
     <row r="307" ht="14.25" customHeight="1">
-      <c r="C307" s="7"/>
+      <c r="C307" s="8"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
-      <c r="C308" s="7"/>
+      <c r="C308" s="8"/>
     </row>
     <row r="309" ht="14.25" customHeight="1">
-      <c r="C309" s="7"/>
+      <c r="C309" s="8"/>
     </row>
     <row r="310" ht="14.25" customHeight="1">
-      <c r="C310" s="7"/>
+      <c r="C310" s="8"/>
     </row>
     <row r="311" ht="14.25" customHeight="1">
-      <c r="C311" s="7"/>
+      <c r="C311" s="8"/>
     </row>
     <row r="312" ht="14.25" customHeight="1">
-      <c r="C312" s="7"/>
+      <c r="C312" s="8"/>
     </row>
     <row r="313" ht="14.25" customHeight="1">
-      <c r="C313" s="7"/>
+      <c r="C313" s="8"/>
     </row>
     <row r="314" ht="14.25" customHeight="1">
-      <c r="C314" s="7"/>
+      <c r="C314" s="8"/>
     </row>
     <row r="315" ht="14.25" customHeight="1">
-      <c r="C315" s="7"/>
+      <c r="C315" s="8"/>
     </row>
     <row r="316" ht="14.25" customHeight="1">
-      <c r="C316" s="7"/>
+      <c r="C316" s="8"/>
     </row>
     <row r="317" ht="14.25" customHeight="1">
-      <c r="C317" s="7"/>
+      <c r="C317" s="8"/>
     </row>
     <row r="318" ht="14.25" customHeight="1">
-      <c r="C318" s="7"/>
+      <c r="C318" s="8"/>
     </row>
     <row r="319" ht="14.25" customHeight="1">
-      <c r="C319" s="7"/>
+      <c r="C319" s="8"/>
     </row>
     <row r="320" ht="14.25" customHeight="1">
-      <c r="C320" s="7"/>
+      <c r="C320" s="8"/>
     </row>
     <row r="321" ht="14.25" customHeight="1">
-      <c r="C321" s="7"/>
+      <c r="C321" s="8"/>
     </row>
     <row r="322" ht="14.25" customHeight="1">
-      <c r="C322" s="7"/>
+      <c r="C322" s="8"/>
     </row>
     <row r="323" ht="14.25" customHeight="1">
-      <c r="C323" s="7"/>
+      <c r="C323" s="8"/>
     </row>
     <row r="324" ht="14.25" customHeight="1">
-      <c r="C324" s="7"/>
+      <c r="C324" s="8"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
-      <c r="C325" s="7"/>
+      <c r="C325" s="8"/>
     </row>
     <row r="326" ht="14.25" customHeight="1">
-      <c r="C326" s="7"/>
+      <c r="C326" s="8"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
-      <c r="C327" s="7"/>
+      <c r="C327" s="8"/>
     </row>
     <row r="328" ht="14.25" customHeight="1">
-      <c r="C328" s="7"/>
+      <c r="C328" s="8"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
-      <c r="C329" s="7"/>
+      <c r="C329" s="8"/>
     </row>
     <row r="330" ht="14.25" customHeight="1">
-      <c r="C330" s="7"/>
+      <c r="C330" s="8"/>
     </row>
     <row r="331" ht="14.25" customHeight="1">
-      <c r="C331" s="7"/>
+      <c r="C331" s="8"/>
     </row>
     <row r="332" ht="14.25" customHeight="1">
-      <c r="C332" s="7"/>
+      <c r="C332" s="8"/>
     </row>
     <row r="333" ht="14.25" customHeight="1">
-      <c r="C333" s="7"/>
+      <c r="C333" s="8"/>
     </row>
     <row r="334" ht="14.25" customHeight="1">
-      <c r="C334" s="7"/>
+      <c r="C334" s="8"/>
     </row>
     <row r="335" ht="14.25" customHeight="1">
-      <c r="C335" s="7"/>
+      <c r="C335" s="8"/>
     </row>
     <row r="336" ht="14.25" customHeight="1">
-      <c r="C336" s="7"/>
+      <c r="C336" s="8"/>
     </row>
     <row r="337" ht="14.25" customHeight="1">
-      <c r="C337" s="7"/>
+      <c r="C337" s="8"/>
     </row>
     <row r="338" ht="14.25" customHeight="1">
-      <c r="C338" s="7"/>
+      <c r="C338" s="8"/>
     </row>
     <row r="339" ht="14.25" customHeight="1">
-      <c r="C339" s="7"/>
+      <c r="C339" s="8"/>
     </row>
     <row r="340" ht="14.25" customHeight="1">
-      <c r="C340" s="7"/>
+      <c r="C340" s="8"/>
     </row>
     <row r="341" ht="14.25" customHeight="1">
-      <c r="C341" s="7"/>
+      <c r="C341" s="8"/>
     </row>
     <row r="342" ht="14.25" customHeight="1">
-      <c r="C342" s="7"/>
+      <c r="C342" s="8"/>
     </row>
     <row r="343" ht="14.25" customHeight="1">
-      <c r="C343" s="7"/>
+      <c r="C343" s="8"/>
     </row>
     <row r="344" ht="14.25" customHeight="1">
-      <c r="C344" s="7"/>
+      <c r="C344" s="8"/>
     </row>
     <row r="345" ht="14.25" customHeight="1">
-      <c r="C345" s="7"/>
+      <c r="C345" s="8"/>
     </row>
     <row r="346" ht="14.25" customHeight="1">
-      <c r="C346" s="7"/>
+      <c r="C346" s="8"/>
     </row>
     <row r="347" ht="14.25" customHeight="1">
-      <c r="C347" s="7"/>
+      <c r="C347" s="8"/>
     </row>
     <row r="348" ht="14.25" customHeight="1">
-      <c r="C348" s="7"/>
+      <c r="C348" s="8"/>
     </row>
     <row r="349" ht="14.25" customHeight="1">
-      <c r="C349" s="7"/>
+      <c r="C349" s="8"/>
     </row>
     <row r="350" ht="14.25" customHeight="1">
-      <c r="C350" s="7"/>
+      <c r="C350" s="8"/>
     </row>
     <row r="351" ht="14.25" customHeight="1">
-      <c r="C351" s="7"/>
+      <c r="C351" s="8"/>
     </row>
     <row r="352" ht="14.25" customHeight="1">
-      <c r="C352" s="7"/>
+      <c r="C352" s="8"/>
     </row>
     <row r="353" ht="14.25" customHeight="1">
-      <c r="C353" s="7"/>
+      <c r="C353" s="8"/>
     </row>
     <row r="354" ht="14.25" customHeight="1">
-      <c r="C354" s="7"/>
+      <c r="C354" s="8"/>
     </row>
     <row r="355" ht="14.25" customHeight="1">
-      <c r="C355" s="7"/>
+      <c r="C355" s="8"/>
     </row>
     <row r="356" ht="14.25" customHeight="1">
-      <c r="C356" s="7"/>
+      <c r="C356" s="8"/>
     </row>
     <row r="357" ht="14.25" customHeight="1">
-      <c r="C357" s="7"/>
+      <c r="C357" s="8"/>
     </row>
     <row r="358" ht="14.25" customHeight="1">
-      <c r="C358" s="7"/>
+      <c r="C358" s="8"/>
     </row>
     <row r="359" ht="14.25" customHeight="1">
-      <c r="C359" s="7"/>
+      <c r="C359" s="8"/>
     </row>
     <row r="360" ht="14.25" customHeight="1">
-      <c r="C360" s="7"/>
+      <c r="C360" s="8"/>
     </row>
     <row r="361" ht="14.25" customHeight="1">
-      <c r="C361" s="7"/>
+      <c r="C361" s="8"/>
     </row>
     <row r="362" ht="14.25" customHeight="1">
-      <c r="C362" s="7"/>
+      <c r="C362" s="8"/>
     </row>
     <row r="363" ht="14.25" customHeight="1">
-      <c r="C363" s="7"/>
+      <c r="C363" s="8"/>
     </row>
     <row r="364" ht="14.25" customHeight="1">
-      <c r="C364" s="7"/>
+      <c r="C364" s="8"/>
     </row>
     <row r="365" ht="14.25" customHeight="1">
-      <c r="C365" s="7"/>
+      <c r="C365" s="8"/>
     </row>
     <row r="366" ht="14.25" customHeight="1">
-      <c r="C366" s="7"/>
+      <c r="C366" s="8"/>
     </row>
     <row r="367" ht="14.25" customHeight="1">
-      <c r="C367" s="7"/>
+      <c r="C367" s="8"/>
     </row>
     <row r="368" ht="14.25" customHeight="1">
-      <c r="C368" s="7"/>
+      <c r="C368" s="8"/>
     </row>
     <row r="369" ht="14.25" customHeight="1">
-      <c r="C369" s="7"/>
+      <c r="C369" s="8"/>
     </row>
     <row r="370" ht="14.25" customHeight="1">
-      <c r="C370" s="7"/>
+      <c r="C370" s="8"/>
     </row>
     <row r="371" ht="14.25" customHeight="1">
-      <c r="C371" s="7"/>
+      <c r="C371" s="8"/>
     </row>
     <row r="372" ht="14.25" customHeight="1">
-      <c r="C372" s="7"/>
+      <c r="C372" s="8"/>
     </row>
     <row r="373" ht="14.25" customHeight="1">
-      <c r="C373" s="7"/>
+      <c r="C373" s="8"/>
     </row>
     <row r="374" ht="14.25" customHeight="1">
-      <c r="C374" s="7"/>
+      <c r="C374" s="8"/>
     </row>
     <row r="375" ht="14.25" customHeight="1">
-      <c r="C375" s="7"/>
+      <c r="C375" s="8"/>
     </row>
     <row r="376" ht="14.25" customHeight="1">
-      <c r="C376" s="7"/>
+      <c r="C376" s="8"/>
     </row>
     <row r="377" ht="14.25" customHeight="1">
-      <c r="C377" s="7"/>
+      <c r="C377" s="8"/>
     </row>
     <row r="378" ht="14.25" customHeight="1">
-      <c r="C378" s="7"/>
+      <c r="C378" s="8"/>
     </row>
     <row r="379" ht="14.25" customHeight="1">
-      <c r="C379" s="7"/>
+      <c r="C379" s="8"/>
     </row>
     <row r="380" ht="14.25" customHeight="1">
-      <c r="C380" s="7"/>
+      <c r="C380" s="8"/>
     </row>
     <row r="381" ht="14.25" customHeight="1">
-      <c r="C381" s="7"/>
+      <c r="C381" s="8"/>
     </row>
     <row r="382" ht="14.25" customHeight="1">
-      <c r="C382" s="7"/>
+      <c r="C382" s="8"/>
     </row>
     <row r="383" ht="14.25" customHeight="1">
-      <c r="C383" s="7"/>
+      <c r="C383" s="8"/>
     </row>
     <row r="384" ht="14.25" customHeight="1">
-      <c r="C384" s="7"/>
+      <c r="C384" s="8"/>
     </row>
     <row r="385" ht="14.25" customHeight="1">
-      <c r="C385" s="7"/>
+      <c r="C385" s="8"/>
     </row>
     <row r="386" ht="14.25" customHeight="1">
-      <c r="C386" s="7"/>
+      <c r="C386" s="8"/>
     </row>
     <row r="387" ht="14.25" customHeight="1">
-      <c r="C387" s="7"/>
+      <c r="C387" s="8"/>
     </row>
     <row r="388" ht="14.25" customHeight="1">
-      <c r="C388" s="7"/>
+      <c r="C388" s="8"/>
     </row>
     <row r="389" ht="14.25" customHeight="1">
-      <c r="C389" s="7"/>
+      <c r="C389" s="8"/>
     </row>
     <row r="390" ht="14.25" customHeight="1">
-      <c r="C390" s="7"/>
+      <c r="C390" s="8"/>
     </row>
     <row r="391" ht="14.25" customHeight="1">
-      <c r="C391" s="7"/>
+      <c r="C391" s="8"/>
     </row>
     <row r="392" ht="14.25" customHeight="1">
-      <c r="C392" s="7"/>
+      <c r="C392" s="8"/>
     </row>
     <row r="393" ht="14.25" customHeight="1">
-      <c r="C393" s="7"/>
+      <c r="C393" s="8"/>
     </row>
     <row r="394" ht="14.25" customHeight="1">
-      <c r="C394" s="7"/>
+      <c r="C394" s="8"/>
     </row>
     <row r="395" ht="14.25" customHeight="1">
-      <c r="C395" s="7"/>
+      <c r="C395" s="8"/>
     </row>
     <row r="396" ht="14.25" customHeight="1">
-      <c r="C396" s="7"/>
+      <c r="C396" s="8"/>
     </row>
     <row r="397" ht="14.25" customHeight="1">
-      <c r="C397" s="7"/>
+      <c r="C397" s="8"/>
     </row>
     <row r="398" ht="14.25" customHeight="1">
-      <c r="C398" s="7"/>
+      <c r="C398" s="8"/>
     </row>
     <row r="399" ht="14.25" customHeight="1">
-      <c r="C399" s="7"/>
+      <c r="C399" s="8"/>
     </row>
     <row r="400" ht="14.25" customHeight="1">
-      <c r="C400" s="7"/>
+      <c r="C400" s="8"/>
     </row>
     <row r="401" ht="14.25" customHeight="1">
-      <c r="C401" s="7"/>
+      <c r="C401" s="8"/>
     </row>
     <row r="402" ht="14.25" customHeight="1">
-      <c r="C402" s="7"/>
+      <c r="C402" s="8"/>
     </row>
     <row r="403" ht="14.25" customHeight="1">
-      <c r="C403" s="7"/>
+      <c r="C403" s="8"/>
     </row>
     <row r="404" ht="14.25" customHeight="1">
-      <c r="C404" s="7"/>
+      <c r="C404" s="8"/>
     </row>
     <row r="405" ht="14.25" customHeight="1">
-      <c r="C405" s="7"/>
+      <c r="C405" s="8"/>
     </row>
     <row r="406" ht="14.25" customHeight="1">
-      <c r="C406" s="7"/>
+      <c r="C406" s="8"/>
     </row>
     <row r="407" ht="14.25" customHeight="1">
-      <c r="C407" s="7"/>
+      <c r="C407" s="8"/>
     </row>
     <row r="408" ht="14.25" customHeight="1">
-      <c r="C408" s="7"/>
+      <c r="C408" s="8"/>
     </row>
     <row r="409" ht="14.25" customHeight="1">
-      <c r="C409" s="7"/>
+      <c r="C409" s="8"/>
     </row>
     <row r="410" ht="14.25" customHeight="1">
-      <c r="C410" s="7"/>
+      <c r="C410" s="8"/>
     </row>
     <row r="411" ht="14.25" customHeight="1">
-      <c r="C411" s="7"/>
+      <c r="C411" s="8"/>
     </row>
     <row r="412" ht="14.25" customHeight="1">
-      <c r="C412" s="7"/>
+      <c r="C412" s="8"/>
     </row>
     <row r="413" ht="14.25" customHeight="1">
-      <c r="C413" s="7"/>
+      <c r="C413" s="8"/>
     </row>
     <row r="414" ht="14.25" customHeight="1">
-      <c r="C414" s="7"/>
+      <c r="C414" s="8"/>
     </row>
     <row r="415" ht="14.25" customHeight="1">
-      <c r="C415" s="7"/>
+      <c r="C415" s="8"/>
     </row>
     <row r="416" ht="14.25" customHeight="1">
-      <c r="C416" s="7"/>
+      <c r="C416" s="8"/>
     </row>
     <row r="417" ht="14.25" customHeight="1">
-      <c r="C417" s="7"/>
+      <c r="C417" s="8"/>
     </row>
     <row r="418" ht="14.25" customHeight="1">
-      <c r="C418" s="7"/>
+      <c r="C418" s="8"/>
     </row>
     <row r="419" ht="14.25" customHeight="1">
-      <c r="C419" s="7"/>
+      <c r="C419" s="8"/>
     </row>
     <row r="420" ht="14.25" customHeight="1">
-      <c r="C420" s="7"/>
+      <c r="C420" s="8"/>
     </row>
     <row r="421" ht="14.25" customHeight="1">
-      <c r="C421" s="7"/>
+      <c r="C421" s="8"/>
     </row>
     <row r="422" ht="14.25" customHeight="1">
-      <c r="C422" s="7"/>
+      <c r="C422" s="8"/>
     </row>
     <row r="423" ht="14.25" customHeight="1">
-      <c r="C423" s="7"/>
+      <c r="C423" s="8"/>
     </row>
     <row r="424" ht="14.25" customHeight="1">
-      <c r="C424" s="7"/>
+      <c r="C424" s="8"/>
     </row>
     <row r="425" ht="14.25" customHeight="1">
-      <c r="C425" s="7"/>
+      <c r="C425" s="8"/>
     </row>
     <row r="426" ht="14.25" customHeight="1">
-      <c r="C426" s="7"/>
+      <c r="C426" s="8"/>
     </row>
     <row r="427" ht="14.25" customHeight="1">
-      <c r="C427" s="7"/>
+      <c r="C427" s="8"/>
     </row>
     <row r="428" ht="14.25" customHeight="1">
-      <c r="C428" s="7"/>
+      <c r="C428" s="8"/>
     </row>
     <row r="429" ht="14.25" customHeight="1">
-      <c r="C429" s="7"/>
+      <c r="C429" s="8"/>
     </row>
     <row r="430" ht="14.25" customHeight="1">
-      <c r="C430" s="7"/>
+      <c r="C430" s="8"/>
     </row>
     <row r="431" ht="14.25" customHeight="1">
-      <c r="C431" s="7"/>
+      <c r="C431" s="8"/>
     </row>
     <row r="432" ht="14.25" customHeight="1">
-      <c r="C432" s="7"/>
+      <c r="C432" s="8"/>
     </row>
     <row r="433" ht="14.25" customHeight="1">
-      <c r="C433" s="7"/>
+      <c r="C433" s="8"/>
     </row>
     <row r="434" ht="14.25" customHeight="1">
-      <c r="C434" s="7"/>
+      <c r="C434" s="8"/>
     </row>
     <row r="435" ht="14.25" customHeight="1">
-      <c r="C435" s="7"/>
+      <c r="C435" s="8"/>
     </row>
     <row r="436" ht="14.25" customHeight="1">
-      <c r="C436" s="7"/>
+      <c r="C436" s="8"/>
     </row>
     <row r="437" ht="14.25" customHeight="1">
-      <c r="C437" s="7"/>
+      <c r="C437" s="8"/>
     </row>
     <row r="438" ht="14.25" customHeight="1">
-      <c r="C438" s="7"/>
+      <c r="C438" s="8"/>
     </row>
     <row r="439" ht="14.25" customHeight="1">
-      <c r="C439" s="7"/>
+      <c r="C439" s="8"/>
     </row>
     <row r="440" ht="14.25" customHeight="1">
-      <c r="C440" s="7"/>
+      <c r="C440" s="8"/>
     </row>
     <row r="441" ht="14.25" customHeight="1">
-      <c r="C441" s="7"/>
+      <c r="C441" s="8"/>
     </row>
     <row r="442" ht="14.25" customHeight="1">
-      <c r="C442" s="7"/>
+      <c r="C442" s="8"/>
     </row>
     <row r="443" ht="14.25" customHeight="1">
-      <c r="C443" s="7"/>
+      <c r="C443" s="8"/>
     </row>
     <row r="444" ht="14.25" customHeight="1">
-      <c r="C444" s="7"/>
+      <c r="C444" s="8"/>
     </row>
     <row r="445" ht="14.25" customHeight="1">
-      <c r="C445" s="7"/>
+      <c r="C445" s="8"/>
     </row>
     <row r="446" ht="14.25" customHeight="1">
-      <c r="C446" s="7"/>
+      <c r="C446" s="8"/>
     </row>
     <row r="447" ht="14.25" customHeight="1">
-      <c r="C447" s="7"/>
+      <c r="C447" s="8"/>
     </row>
     <row r="448" ht="14.25" customHeight="1">
-      <c r="C448" s="7"/>
+      <c r="C448" s="8"/>
     </row>
     <row r="449" ht="14.25" customHeight="1">
-      <c r="C449" s="7"/>
+      <c r="C449" s="8"/>
     </row>
     <row r="450" ht="14.25" customHeight="1">
-      <c r="C450" s="7"/>
+      <c r="C450" s="8"/>
     </row>
     <row r="451" ht="14.25" customHeight="1">
-      <c r="C451" s="7"/>
+      <c r="C451" s="8"/>
     </row>
     <row r="452" ht="14.25" customHeight="1">
-      <c r="C452" s="7"/>
+      <c r="C452" s="8"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
-      <c r="C453" s="7"/>
+      <c r="C453" s="8"/>
     </row>
     <row r="454" ht="14.25" customHeight="1">
-      <c r="C454" s="7"/>
+      <c r="C454" s="8"/>
     </row>
     <row r="455" ht="14.25" customHeight="1">
-      <c r="C455" s="7"/>
+      <c r="C455" s="8"/>
     </row>
     <row r="456" ht="14.25" customHeight="1">
-      <c r="C456" s="7"/>
+      <c r="C456" s="8"/>
     </row>
     <row r="457" ht="14.25" customHeight="1">
-      <c r="C457" s="7"/>
+      <c r="C457" s="8"/>
     </row>
     <row r="458" ht="14.25" customHeight="1">
-      <c r="C458" s="7"/>
+      <c r="C458" s="8"/>
     </row>
     <row r="459" ht="14.25" customHeight="1">
-      <c r="C459" s="7"/>
+      <c r="C459" s="8"/>
     </row>
     <row r="460" ht="14.25" customHeight="1">
-      <c r="C460" s="7"/>
+      <c r="C460" s="8"/>
     </row>
     <row r="461" ht="14.25" customHeight="1">
-      <c r="C461" s="7"/>
+      <c r="C461" s="8"/>
     </row>
     <row r="462" ht="14.25" customHeight="1">
-      <c r="C462" s="7"/>
+      <c r="C462" s="8"/>
     </row>
     <row r="463" ht="14.25" customHeight="1">
-      <c r="C463" s="7"/>
+      <c r="C463" s="8"/>
     </row>
     <row r="464" ht="14.25" customHeight="1">
-      <c r="C464" s="7"/>
+      <c r="C464" s="8"/>
     </row>
     <row r="465" ht="14.25" customHeight="1">
-      <c r="C465" s="7"/>
+      <c r="C465" s="8"/>
     </row>
     <row r="466" ht="14.25" customHeight="1">
-      <c r="C466" s="7"/>
+      <c r="C466" s="8"/>
     </row>
     <row r="467" ht="14.25" customHeight="1">
-      <c r="C467" s="7"/>
+      <c r="C467" s="8"/>
     </row>
     <row r="468" ht="14.25" customHeight="1">
-      <c r="C468" s="7"/>
+      <c r="C468" s="8"/>
     </row>
     <row r="469" ht="14.25" customHeight="1">
-      <c r="C469" s="7"/>
+      <c r="C469" s="8"/>
     </row>
     <row r="470" ht="14.25" customHeight="1">
-      <c r="C470" s="7"/>
+      <c r="C470" s="8"/>
     </row>
     <row r="471" ht="14.25" customHeight="1">
-      <c r="C471" s="7"/>
+      <c r="C471" s="8"/>
     </row>
     <row r="472" ht="14.25" customHeight="1">
-      <c r="C472" s="7"/>
+      <c r="C472" s="8"/>
     </row>
     <row r="473" ht="14.25" customHeight="1">
-      <c r="C473" s="7"/>
+      <c r="C473" s="8"/>
     </row>
     <row r="474" ht="14.25" customHeight="1">
-      <c r="C474" s="7"/>
+      <c r="C474" s="8"/>
     </row>
     <row r="475" ht="14.25" customHeight="1">
-      <c r="C475" s="7"/>
+      <c r="C475" s="8"/>
     </row>
     <row r="476" ht="14.25" customHeight="1">
-      <c r="C476" s="7"/>
+      <c r="C476" s="8"/>
     </row>
     <row r="477" ht="14.25" customHeight="1">
-      <c r="C477" s="7"/>
+      <c r="C477" s="8"/>
     </row>
     <row r="478" ht="14.25" customHeight="1">
-      <c r="C478" s="7"/>
+      <c r="C478" s="8"/>
     </row>
     <row r="479" ht="14.25" customHeight="1">
-      <c r="C479" s="7"/>
+      <c r="C479" s="8"/>
     </row>
     <row r="480" ht="14.25" customHeight="1">
-      <c r="C480" s="7"/>
+      <c r="C480" s="8"/>
     </row>
     <row r="481" ht="14.25" customHeight="1">
-      <c r="C481" s="7"/>
+      <c r="C481" s="8"/>
     </row>
     <row r="482" ht="14.25" customHeight="1">
-      <c r="C482" s="7"/>
+      <c r="C482" s="8"/>
     </row>
     <row r="483" ht="14.25" customHeight="1">
-      <c r="C483" s="7"/>
+      <c r="C483" s="8"/>
     </row>
     <row r="484" ht="14.25" customHeight="1">
-      <c r="C484" s="7"/>
+      <c r="C484" s="8"/>
     </row>
     <row r="485" ht="14.25" customHeight="1">
-      <c r="C485" s="7"/>
+      <c r="C485" s="8"/>
     </row>
     <row r="486" ht="14.25" customHeight="1">
-      <c r="C486" s="7"/>
+      <c r="C486" s="8"/>
     </row>
     <row r="487" ht="14.25" customHeight="1">
-      <c r="C487" s="7"/>
+      <c r="C487" s="8"/>
     </row>
     <row r="488" ht="14.25" customHeight="1">
-      <c r="C488" s="7"/>
+      <c r="C488" s="8"/>
     </row>
     <row r="489" ht="14.25" customHeight="1">
-      <c r="C489" s="7"/>
+      <c r="C489" s="8"/>
     </row>
     <row r="490" ht="14.25" customHeight="1">
-      <c r="C490" s="7"/>
+      <c r="C490" s="8"/>
     </row>
     <row r="491" ht="14.25" customHeight="1">
-      <c r="C491" s="7"/>
+      <c r="C491" s="8"/>
     </row>
     <row r="492" ht="14.25" customHeight="1">
-      <c r="C492" s="7"/>
+      <c r="C492" s="8"/>
     </row>
     <row r="493" ht="14.25" customHeight="1">
-      <c r="C493" s="7"/>
+      <c r="C493" s="8"/>
     </row>
     <row r="494" ht="14.25" customHeight="1">
-      <c r="C494" s="7"/>
+      <c r="C494" s="8"/>
     </row>
     <row r="495" ht="14.25" customHeight="1">
-      <c r="C495" s="7"/>
+      <c r="C495" s="8"/>
     </row>
     <row r="496" ht="14.25" customHeight="1">
-      <c r="C496" s="7"/>
+      <c r="C496" s="8"/>
     </row>
     <row r="497" ht="14.25" customHeight="1">
-      <c r="C497" s="7"/>
+      <c r="C497" s="8"/>
     </row>
     <row r="498" ht="14.25" customHeight="1">
-      <c r="C498" s="7"/>
+      <c r="C498" s="8"/>
     </row>
     <row r="499" ht="14.25" customHeight="1">
-      <c r="C499" s="7"/>
+      <c r="C499" s="8"/>
     </row>
     <row r="500" ht="14.25" customHeight="1">
-      <c r="C500" s="7"/>
+      <c r="C500" s="8"/>
     </row>
     <row r="501" ht="14.25" customHeight="1">
-      <c r="C501" s="7"/>
+      <c r="C501" s="8"/>
     </row>
     <row r="502" ht="14.25" customHeight="1">
-      <c r="C502" s="7"/>
+      <c r="C502" s="8"/>
     </row>
     <row r="503" ht="14.25" customHeight="1">
-      <c r="C503" s="7"/>
+      <c r="C503" s="8"/>
     </row>
     <row r="504" ht="14.25" customHeight="1">
-      <c r="C504" s="7"/>
+      <c r="C504" s="8"/>
     </row>
     <row r="505" ht="14.25" customHeight="1">
-      <c r="C505" s="7"/>
+      <c r="C505" s="8"/>
     </row>
     <row r="506" ht="14.25" customHeight="1">
-      <c r="C506" s="7"/>
+      <c r="C506" s="8"/>
     </row>
     <row r="507" ht="14.25" customHeight="1">
-      <c r="C507" s="7"/>
+      <c r="C507" s="8"/>
     </row>
     <row r="508" ht="14.25" customHeight="1">
-      <c r="C508" s="7"/>
+      <c r="C508" s="8"/>
     </row>
     <row r="509" ht="14.25" customHeight="1">
-      <c r="C509" s="7"/>
+      <c r="C509" s="8"/>
     </row>
     <row r="510" ht="14.25" customHeight="1">
-      <c r="C510" s="7"/>
+      <c r="C510" s="8"/>
     </row>
     <row r="511" ht="14.25" customHeight="1">
-      <c r="C511" s="7"/>
+      <c r="C511" s="8"/>
     </row>
     <row r="512" ht="14.25" customHeight="1">
-      <c r="C512" s="7"/>
+      <c r="C512" s="8"/>
     </row>
     <row r="513" ht="14.25" customHeight="1">
-      <c r="C513" s="7"/>
+      <c r="C513" s="8"/>
     </row>
     <row r="514" ht="14.25" customHeight="1">
-      <c r="C514" s="7"/>
+      <c r="C514" s="8"/>
     </row>
     <row r="515" ht="14.25" customHeight="1">
-      <c r="C515" s="7"/>
+      <c r="C515" s="8"/>
     </row>
     <row r="516" ht="14.25" customHeight="1">
-      <c r="C516" s="7"/>
+      <c r="C516" s="8"/>
     </row>
     <row r="517" ht="14.25" customHeight="1">
-      <c r="C517" s="7"/>
+      <c r="C517" s="8"/>
     </row>
     <row r="518" ht="14.25" customHeight="1">
-      <c r="C518" s="7"/>
+      <c r="C518" s="8"/>
     </row>
     <row r="519" ht="14.25" customHeight="1">
-      <c r="C519" s="7"/>
+      <c r="C519" s="8"/>
     </row>
     <row r="520" ht="14.25" customHeight="1">
-      <c r="C520" s="7"/>
+      <c r="C520" s="8"/>
     </row>
     <row r="521" ht="14.25" customHeight="1">
-      <c r="C521" s="7"/>
+      <c r="C521" s="8"/>
     </row>
     <row r="522" ht="14.25" customHeight="1">
-      <c r="C522" s="7"/>
+      <c r="C522" s="8"/>
     </row>
     <row r="523" ht="14.25" customHeight="1">
-      <c r="C523" s="7"/>
+      <c r="C523" s="8"/>
     </row>
     <row r="524" ht="14.25" customHeight="1">
-      <c r="C524" s="7"/>
+      <c r="C524" s="8"/>
     </row>
     <row r="525" ht="14.25" customHeight="1">
-      <c r="C525" s="7"/>
+      <c r="C525" s="8"/>
     </row>
     <row r="526" ht="14.25" customHeight="1">
-      <c r="C526" s="7"/>
+      <c r="C526" s="8"/>
     </row>
     <row r="527" ht="14.25" customHeight="1">
-      <c r="C527" s="7"/>
+      <c r="C527" s="8"/>
     </row>
     <row r="528" ht="14.25" customHeight="1">
-      <c r="C528" s="7"/>
+      <c r="C528" s="8"/>
     </row>
     <row r="529" ht="14.25" customHeight="1">
-      <c r="C529" s="7"/>
+      <c r="C529" s="8"/>
     </row>
     <row r="530" ht="14.25" customHeight="1">
-      <c r="C530" s="7"/>
+      <c r="C530" s="8"/>
     </row>
     <row r="531" ht="14.25" customHeight="1">
-      <c r="C531" s="7"/>
+      <c r="C531" s="8"/>
     </row>
     <row r="532" ht="14.25" customHeight="1">
-      <c r="C532" s="7"/>
+      <c r="C532" s="8"/>
     </row>
     <row r="533" ht="14.25" customHeight="1">
-      <c r="C533" s="7"/>
+      <c r="C533" s="8"/>
     </row>
     <row r="534" ht="14.25" customHeight="1">
-      <c r="C534" s="7"/>
+      <c r="C534" s="8"/>
     </row>
     <row r="535" ht="14.25" customHeight="1">
-      <c r="C535" s="7"/>
+      <c r="C535" s="8"/>
     </row>
     <row r="536" ht="14.25" customHeight="1">
-      <c r="C536" s="7"/>
+      <c r="C536" s="8"/>
     </row>
     <row r="537" ht="14.25" customHeight="1">
-      <c r="C537" s="7"/>
+      <c r="C537" s="8"/>
     </row>
     <row r="538" ht="14.25" customHeight="1">
-      <c r="C538" s="7"/>
+      <c r="C538" s="8"/>
     </row>
     <row r="539" ht="14.25" customHeight="1">
-      <c r="C539" s="7"/>
+      <c r="C539" s="8"/>
     </row>
     <row r="540" ht="14.25" customHeight="1">
-      <c r="C540" s="7"/>
+      <c r="C540" s="8"/>
     </row>
     <row r="541" ht="14.25" customHeight="1">
-      <c r="C541" s="7"/>
+      <c r="C541" s="8"/>
     </row>
     <row r="542" ht="14.25" customHeight="1">
-      <c r="C542" s="7"/>
+      <c r="C542" s="8"/>
     </row>
     <row r="543" ht="14.25" customHeight="1">
-      <c r="C543" s="7"/>
+      <c r="C543" s="8"/>
     </row>
     <row r="544" ht="14.25" customHeight="1">
-      <c r="C544" s="7"/>
+      <c r="C544" s="8"/>
     </row>
     <row r="545" ht="14.25" customHeight="1">
-      <c r="C545" s="7"/>
+      <c r="C545" s="8"/>
     </row>
     <row r="546" ht="14.25" customHeight="1">
-      <c r="C546" s="7"/>
+      <c r="C546" s="8"/>
     </row>
     <row r="547" ht="14.25" customHeight="1">
-      <c r="C547" s="7"/>
+      <c r="C547" s="8"/>
     </row>
     <row r="548" ht="14.25" customHeight="1">
-      <c r="C548" s="7"/>
+      <c r="C548" s="8"/>
     </row>
     <row r="549" ht="14.25" customHeight="1">
-      <c r="C549" s="7"/>
+      <c r="C549" s="8"/>
     </row>
     <row r="550" ht="14.25" customHeight="1">
-      <c r="C550" s="7"/>
+      <c r="C550" s="8"/>
     </row>
     <row r="551" ht="14.25" customHeight="1">
-      <c r="C551" s="7"/>
+      <c r="C551" s="8"/>
     </row>
     <row r="552" ht="14.25" customHeight="1">
-      <c r="C552" s="7"/>
+      <c r="C552" s="8"/>
     </row>
     <row r="553" ht="14.25" customHeight="1">
-      <c r="C553" s="7"/>
+      <c r="C553" s="8"/>
     </row>
     <row r="554" ht="14.25" customHeight="1">
-      <c r="C554" s="7"/>
+      <c r="C554" s="8"/>
     </row>
     <row r="555" ht="14.25" customHeight="1">
-      <c r="C555" s="7"/>
+      <c r="C555" s="8"/>
     </row>
     <row r="556" ht="14.25" customHeight="1">
-      <c r="C556" s="7"/>
+      <c r="C556" s="8"/>
     </row>
     <row r="557" ht="14.25" customHeight="1">
-      <c r="C557" s="7"/>
+      <c r="C557" s="8"/>
     </row>
     <row r="558" ht="14.25" customHeight="1">
-      <c r="C558" s="7"/>
+      <c r="C558" s="8"/>
     </row>
     <row r="559" ht="14.25" customHeight="1">
-      <c r="C559" s="7"/>
+      <c r="C559" s="8"/>
     </row>
     <row r="560" ht="14.25" customHeight="1">
-      <c r="C560" s="7"/>
+      <c r="C560" s="8"/>
     </row>
     <row r="561" ht="14.25" customHeight="1">
-      <c r="C561" s="7"/>
+      <c r="C561" s="8"/>
     </row>
     <row r="562" ht="14.25" customHeight="1">
-      <c r="C562" s="7"/>
+      <c r="C562" s="8"/>
     </row>
     <row r="563" ht="14.25" customHeight="1">
-      <c r="C563" s="7"/>
+      <c r="C563" s="8"/>
     </row>
     <row r="564" ht="14.25" customHeight="1">
-      <c r="C564" s="7"/>
+      <c r="C564" s="8"/>
     </row>
     <row r="565" ht="14.25" customHeight="1">
-      <c r="C565" s="7"/>
+      <c r="C565" s="8"/>
     </row>
     <row r="566" ht="14.25" customHeight="1">
-      <c r="C566" s="7"/>
+      <c r="C566" s="8"/>
     </row>
     <row r="567" ht="14.25" customHeight="1">
-      <c r="C567" s="7"/>
+      <c r="C567" s="8"/>
     </row>
     <row r="568" ht="14.25" customHeight="1">
-      <c r="C568" s="7"/>
+      <c r="C568" s="8"/>
     </row>
     <row r="569" ht="14.25" customHeight="1">
-      <c r="C569" s="7"/>
+      <c r="C569" s="8"/>
     </row>
     <row r="570" ht="14.25" customHeight="1">
-      <c r="C570" s="7"/>
+      <c r="C570" s="8"/>
     </row>
     <row r="571" ht="14.25" customHeight="1">
-      <c r="C571" s="7"/>
+      <c r="C571" s="8"/>
     </row>
     <row r="572" ht="14.25" customHeight="1">
-      <c r="C572" s="7"/>
+      <c r="C572" s="8"/>
     </row>
     <row r="573" ht="14.25" customHeight="1">
-      <c r="C573" s="7"/>
+      <c r="C573" s="8"/>
     </row>
     <row r="574" ht="14.25" customHeight="1">
-      <c r="C574" s="7"/>
+      <c r="C574" s="8"/>
     </row>
     <row r="575" ht="14.25" customHeight="1">
-      <c r="C575" s="7"/>
+      <c r="C575" s="8"/>
     </row>
     <row r="576" ht="14.25" customHeight="1">
-      <c r="C576" s="7"/>
+      <c r="C576" s="8"/>
     </row>
     <row r="577" ht="14.25" customHeight="1">
-      <c r="C577" s="7"/>
+      <c r="C577" s="8"/>
     </row>
     <row r="578" ht="14.25" customHeight="1">
-      <c r="C578" s="7"/>
+      <c r="C578" s="8"/>
     </row>
     <row r="579" ht="14.25" customHeight="1">
-      <c r="C579" s="7"/>
+      <c r="C579" s="8"/>
     </row>
     <row r="580" ht="14.25" customHeight="1">
-      <c r="C580" s="7"/>
+      <c r="C580" s="8"/>
     </row>
     <row r="581" ht="14.25" customHeight="1">
-      <c r="C581" s="7"/>
+      <c r="C581" s="8"/>
     </row>
     <row r="582" ht="14.25" customHeight="1">
-      <c r="C582" s="7"/>
+      <c r="C582" s="8"/>
     </row>
     <row r="583" ht="14.25" customHeight="1">
-      <c r="C583" s="7"/>
+      <c r="C583" s="8"/>
     </row>
     <row r="584" ht="14.25" customHeight="1">
-      <c r="C584" s="7"/>
+      <c r="C584" s="8"/>
     </row>
     <row r="585" ht="14.25" customHeight="1">
-      <c r="C585" s="7"/>
+      <c r="C585" s="8"/>
     </row>
     <row r="586" ht="14.25" customHeight="1">
-      <c r="C586" s="7"/>
+      <c r="C586" s="8"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
-      <c r="C587" s="7"/>
+      <c r="C587" s="8"/>
     </row>
     <row r="588" ht="14.25" customHeight="1">
-      <c r="C588" s="7"/>
+      <c r="C588" s="8"/>
     </row>
     <row r="589" ht="14.25" customHeight="1">
-      <c r="C589" s="7"/>
+      <c r="C589" s="8"/>
     </row>
     <row r="590" ht="14.25" customHeight="1">
-      <c r="C590" s="7"/>
+      <c r="C590" s="8"/>
     </row>
     <row r="591" ht="14.25" customHeight="1">
-      <c r="C591" s="7"/>
+      <c r="C591" s="8"/>
     </row>
     <row r="592" ht="14.25" customHeight="1">
-      <c r="C592" s="7"/>
+      <c r="C592" s="8"/>
     </row>
     <row r="593" ht="14.25" customHeight="1">
-      <c r="C593" s="7"/>
+      <c r="C593" s="8"/>
     </row>
     <row r="594" ht="14.25" customHeight="1">
-      <c r="C594" s="7"/>
+      <c r="C594" s="8"/>
     </row>
     <row r="595" ht="14.25" customHeight="1">
-      <c r="C595" s="7"/>
+      <c r="C595" s="8"/>
     </row>
     <row r="596" ht="14.25" customHeight="1">
-      <c r="C596" s="7"/>
+      <c r="C596" s="8"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
-      <c r="C597" s="7"/>
+      <c r="C597" s="8"/>
     </row>
     <row r="598" ht="14.25" customHeight="1">
-      <c r="C598" s="7"/>
+      <c r="C598" s="8"/>
     </row>
     <row r="599" ht="14.25" customHeight="1">
-      <c r="C599" s="7"/>
+      <c r="C599" s="8"/>
     </row>
     <row r="600" ht="14.25" customHeight="1">
-      <c r="C600" s="7"/>
+      <c r="C600" s="8"/>
     </row>
     <row r="601" ht="14.25" customHeight="1">
-      <c r="C601" s="7"/>
+      <c r="C601" s="8"/>
     </row>
     <row r="602" ht="14.25" customHeight="1">
-      <c r="C602" s="7"/>
+      <c r="C602" s="8"/>
     </row>
     <row r="603" ht="14.25" customHeight="1">
-      <c r="C603" s="7"/>
+      <c r="C603" s="8"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="C604" s="7"/>
+      <c r="C604" s="8"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="C605" s="7"/>
+      <c r="C605" s="8"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
-      <c r="C606" s="7"/>
+      <c r="C606" s="8"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="C607" s="7"/>
+      <c r="C607" s="8"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="C608" s="7"/>
+      <c r="C608" s="8"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="C609" s="7"/>
+      <c r="C609" s="8"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="C610" s="7"/>
+      <c r="C610" s="8"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="C611" s="7"/>
+      <c r="C611" s="8"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
-      <c r="C612" s="7"/>
+      <c r="C612" s="8"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="C613" s="7"/>
+      <c r="C613" s="8"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="C614" s="7"/>
+      <c r="C614" s="8"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
-      <c r="C615" s="7"/>
+      <c r="C615" s="8"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="C616" s="7"/>
+      <c r="C616" s="8"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="C617" s="7"/>
+      <c r="C617" s="8"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="C618" s="7"/>
+      <c r="C618" s="8"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="C619" s="7"/>
+      <c r="C619" s="8"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="C620" s="7"/>
+      <c r="C620" s="8"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="C621" s="7"/>
+      <c r="C621" s="8"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
-      <c r="C622" s="7"/>
+      <c r="C622" s="8"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
-      <c r="C623" s="7"/>
+      <c r="C623" s="8"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
-      <c r="C624" s="7"/>
+      <c r="C624" s="8"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="C625" s="7"/>
+      <c r="C625" s="8"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="C626" s="7"/>
+      <c r="C626" s="8"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
-      <c r="C627" s="7"/>
+      <c r="C627" s="8"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
-      <c r="C628" s="7"/>
+      <c r="C628" s="8"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
-      <c r="C629" s="7"/>
+      <c r="C629" s="8"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
-      <c r="C630" s="7"/>
+      <c r="C630" s="8"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="C631" s="7"/>
+      <c r="C631" s="8"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="C632" s="7"/>
+      <c r="C632" s="8"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
-      <c r="C633" s="7"/>
+      <c r="C633" s="8"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
-      <c r="C634" s="7"/>
+      <c r="C634" s="8"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
-      <c r="C635" s="7"/>
+      <c r="C635" s="8"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
-      <c r="C636" s="7"/>
+      <c r="C636" s="8"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
-      <c r="C637" s="7"/>
+      <c r="C637" s="8"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
-      <c r="C638" s="7"/>
+      <c r="C638" s="8"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
-      <c r="C639" s="7"/>
+      <c r="C639" s="8"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
-      <c r="C640" s="7"/>
+      <c r="C640" s="8"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
-      <c r="C641" s="7"/>
+      <c r="C641" s="8"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
-      <c r="C642" s="7"/>
+      <c r="C642" s="8"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
-      <c r="C643" s="7"/>
+      <c r="C643" s="8"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
-      <c r="C644" s="7"/>
+      <c r="C644" s="8"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
-      <c r="C645" s="7"/>
+      <c r="C645" s="8"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
-      <c r="C646" s="7"/>
+      <c r="C646" s="8"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
-      <c r="C647" s="7"/>
+      <c r="C647" s="8"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
-      <c r="C648" s="7"/>
+      <c r="C648" s="8"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
-      <c r="C649" s="7"/>
+      <c r="C649" s="8"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
-      <c r="C650" s="7"/>
+      <c r="C650" s="8"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
-      <c r="C651" s="7"/>
+      <c r="C651" s="8"/>
     </row>
     <row r="652" ht="14.25" customHeight="1">
-      <c r="C652" s="7"/>
+      <c r="C652" s="8"/>
     </row>
     <row r="653" ht="14.25" customHeight="1">
-      <c r="C653" s="7"/>
+      <c r="C653" s="8"/>
     </row>
     <row r="654" ht="14.25" customHeight="1">
-      <c r="C654" s="7"/>
+      <c r="C654" s="8"/>
     </row>
     <row r="655" ht="14.25" customHeight="1">
-      <c r="C655" s="7"/>
+      <c r="C655" s="8"/>
     </row>
     <row r="656" ht="14.25" customHeight="1">
-      <c r="C656" s="7"/>
+      <c r="C656" s="8"/>
     </row>
     <row r="657" ht="14.25" customHeight="1">
-      <c r="C657" s="7"/>
+      <c r="C657" s="8"/>
     </row>
     <row r="658" ht="14.25" customHeight="1">
-      <c r="C658" s="7"/>
+      <c r="C658" s="8"/>
     </row>
     <row r="659" ht="14.25" customHeight="1">
-      <c r="C659" s="7"/>
+      <c r="C659" s="8"/>
     </row>
     <row r="660" ht="14.25" customHeight="1">
-      <c r="C660" s="7"/>
+      <c r="C660" s="8"/>
     </row>
     <row r="661" ht="14.25" customHeight="1">
-      <c r="C661" s="7"/>
+      <c r="C661" s="8"/>
     </row>
     <row r="662" ht="14.25" customHeight="1">
-      <c r="C662" s="7"/>
+      <c r="C662" s="8"/>
     </row>
     <row r="663" ht="14.25" customHeight="1">
-      <c r="C663" s="7"/>
+      <c r="C663" s="8"/>
     </row>
     <row r="664" ht="14.25" customHeight="1">
-      <c r="C664" s="7"/>
+      <c r="C664" s="8"/>
     </row>
     <row r="665" ht="14.25" customHeight="1">
-      <c r="C665" s="7"/>
+      <c r="C665" s="8"/>
     </row>
     <row r="666" ht="14.25" customHeight="1">
-      <c r="C666" s="7"/>
+      <c r="C666" s="8"/>
     </row>
     <row r="667" ht="14.25" customHeight="1">
-      <c r="C667" s="7"/>
+      <c r="C667" s="8"/>
     </row>
     <row r="668" ht="14.25" customHeight="1">
-      <c r="C668" s="7"/>
+      <c r="C668" s="8"/>
     </row>
     <row r="669" ht="14.25" customHeight="1">
-      <c r="C669" s="7"/>
+      <c r="C669" s="8"/>
     </row>
     <row r="670" ht="14.25" customHeight="1">
-      <c r="C670" s="7"/>
+      <c r="C670" s="8"/>
     </row>
     <row r="671" ht="14.25" customHeight="1">
-      <c r="C671" s="7"/>
+      <c r="C671" s="8"/>
     </row>
     <row r="672" ht="14.25" customHeight="1">
-      <c r="C672" s="7"/>
+      <c r="C672" s="8"/>
     </row>
     <row r="673" ht="14.25" customHeight="1">
-      <c r="C673" s="7"/>
+      <c r="C673" s="8"/>
     </row>
     <row r="674" ht="14.25" customHeight="1">
-      <c r="C674" s="7"/>
+      <c r="C674" s="8"/>
     </row>
     <row r="675" ht="14.25" customHeight="1">
-      <c r="C675" s="7"/>
+      <c r="C675" s="8"/>
     </row>
     <row r="676" ht="14.25" customHeight="1">
-      <c r="C676" s="7"/>
+      <c r="C676" s="8"/>
     </row>
     <row r="677" ht="14.25" customHeight="1">
-      <c r="C677" s="7"/>
+      <c r="C677" s="8"/>
     </row>
     <row r="678" ht="14.25" customHeight="1">
-      <c r="C678" s="7"/>
+      <c r="C678" s="8"/>
     </row>
     <row r="679" ht="14.25" customHeight="1">
-      <c r="C679" s="7"/>
+      <c r="C679" s="8"/>
     </row>
     <row r="680" ht="14.25" customHeight="1">
-      <c r="C680" s="7"/>
+      <c r="C680" s="8"/>
     </row>
     <row r="681" ht="14.25" customHeight="1">
-      <c r="C681" s="7"/>
+      <c r="C681" s="8"/>
     </row>
     <row r="682" ht="14.25" customHeight="1">
-      <c r="C682" s="7"/>
+      <c r="C682" s="8"/>
     </row>
     <row r="683" ht="14.25" customHeight="1">
-      <c r="C683" s="7"/>
+      <c r="C683" s="8"/>
     </row>
     <row r="684" ht="14.25" customHeight="1">
-      <c r="C684" s="7"/>
+      <c r="C684" s="8"/>
     </row>
     <row r="685" ht="14.25" customHeight="1">
-      <c r="C685" s="7"/>
+      <c r="C685" s="8"/>
     </row>
     <row r="686" ht="14.25" customHeight="1">
-      <c r="C686" s="7"/>
+      <c r="C686" s="8"/>
     </row>
     <row r="687" ht="14.25" customHeight="1">
-      <c r="C687" s="7"/>
+      <c r="C687" s="8"/>
     </row>
     <row r="688" ht="14.25" customHeight="1">
-      <c r="C688" s="7"/>
+      <c r="C688" s="8"/>
     </row>
     <row r="689" ht="14.25" customHeight="1">
-      <c r="C689" s="7"/>
+      <c r="C689" s="8"/>
     </row>
     <row r="690" ht="14.25" customHeight="1">
-      <c r="C690" s="7"/>
+      <c r="C690" s="8"/>
     </row>
     <row r="691" ht="14.25" customHeight="1">
-      <c r="C691" s="7"/>
+      <c r="C691" s="8"/>
     </row>
     <row r="692" ht="14.25" customHeight="1">
-      <c r="C692" s="7"/>
+      <c r="C692" s="8"/>
     </row>
     <row r="693" ht="14.25" customHeight="1">
-      <c r="C693" s="7"/>
+      <c r="C693" s="8"/>
     </row>
     <row r="694" ht="14.25" customHeight="1">
-      <c r="C694" s="7"/>
+      <c r="C694" s="8"/>
     </row>
     <row r="695" ht="14.25" customHeight="1">
-      <c r="C695" s="7"/>
+      <c r="C695" s="8"/>
     </row>
     <row r="696" ht="14.25" customHeight="1">
-      <c r="C696" s="7"/>
+      <c r="C696" s="8"/>
     </row>
     <row r="697" ht="14.25" customHeight="1">
-      <c r="C697" s="7"/>
+      <c r="C697" s="8"/>
     </row>
     <row r="698" ht="14.25" customHeight="1">
-      <c r="C698" s="7"/>
+      <c r="C698" s="8"/>
     </row>
     <row r="699" ht="14.25" customHeight="1">
-      <c r="C699" s="7"/>
+      <c r="C699" s="8"/>
     </row>
     <row r="700" ht="14.25" customHeight="1">
-      <c r="C700" s="7"/>
+      <c r="C700" s="8"/>
     </row>
     <row r="701" ht="14.25" customHeight="1">
-      <c r="C701" s="7"/>
+      <c r="C701" s="8"/>
     </row>
     <row r="702" ht="14.25" customHeight="1">
-      <c r="C702" s="7"/>
+      <c r="C702" s="8"/>
     </row>
     <row r="703" ht="14.25" customHeight="1">
-      <c r="C703" s="7"/>
+      <c r="C703" s="8"/>
     </row>
     <row r="704" ht="14.25" customHeight="1">
-      <c r="C704" s="7"/>
+      <c r="C704" s="8"/>
     </row>
     <row r="705" ht="14.25" customHeight="1">
-      <c r="C705" s="7"/>
+      <c r="C705" s="8"/>
     </row>
     <row r="706" ht="14.25" customHeight="1">
-      <c r="C706" s="7"/>
+      <c r="C706" s="8"/>
     </row>
     <row r="707" ht="14.25" customHeight="1">
-      <c r="C707" s="7"/>
+      <c r="C707" s="8"/>
     </row>
     <row r="708" ht="14.25" customHeight="1">
-      <c r="C708" s="7"/>
+      <c r="C708" s="8"/>
     </row>
     <row r="709" ht="14.25" customHeight="1">
-      <c r="C709" s="7"/>
+      <c r="C709" s="8"/>
     </row>
     <row r="710" ht="14.25" customHeight="1">
-      <c r="C710" s="7"/>
+      <c r="C710" s="8"/>
     </row>
     <row r="711" ht="14.25" customHeight="1">
-      <c r="C711" s="7"/>
+      <c r="C711" s="8"/>
     </row>
     <row r="712" ht="14.25" customHeight="1">
-      <c r="C712" s="7"/>
+      <c r="C712" s="8"/>
     </row>
     <row r="713" ht="14.25" customHeight="1">
-      <c r="C713" s="7"/>
+      <c r="C713" s="8"/>
     </row>
     <row r="714" ht="14.25" customHeight="1">
-      <c r="C714" s="7"/>
+      <c r="C714" s="8"/>
     </row>
     <row r="715" ht="14.25" customHeight="1">
-      <c r="C715" s="7"/>
+      <c r="C715" s="8"/>
     </row>
     <row r="716" ht="14.25" customHeight="1">
-      <c r="C716" s="7"/>
+      <c r="C716" s="8"/>
     </row>
     <row r="717" ht="14.25" customHeight="1">
-      <c r="C717" s="7"/>
+      <c r="C717" s="8"/>
     </row>
     <row r="718" ht="14.25" customHeight="1">
-      <c r="C718" s="7"/>
+      <c r="C718" s="8"/>
     </row>
     <row r="719" ht="14.25" customHeight="1">
-      <c r="C719" s="7"/>
+      <c r="C719" s="8"/>
     </row>
     <row r="720" ht="14.25" customHeight="1">
-      <c r="C720" s="7"/>
+      <c r="C720" s="8"/>
     </row>
     <row r="721" ht="14.25" customHeight="1">
-      <c r="C721" s="7"/>
+      <c r="C721" s="8"/>
     </row>
     <row r="722" ht="14.25" customHeight="1">
-      <c r="C722" s="7"/>
+      <c r="C722" s="8"/>
     </row>
     <row r="723" ht="14.25" customHeight="1">
-      <c r="C723" s="7"/>
+      <c r="C723" s="8"/>
     </row>
     <row r="724" ht="14.25" customHeight="1">
-      <c r="C724" s="7"/>
+      <c r="C724" s="8"/>
     </row>
     <row r="725" ht="14.25" customHeight="1">
-      <c r="C725" s="7"/>
+      <c r="C725" s="8"/>
     </row>
     <row r="726" ht="14.25" customHeight="1">
-      <c r="C726" s="7"/>
+      <c r="C726" s="8"/>
     </row>
     <row r="727" ht="14.25" customHeight="1">
-      <c r="C727" s="7"/>
+      <c r="C727" s="8"/>
     </row>
     <row r="728" ht="14.25" customHeight="1">
-      <c r="C728" s="7"/>
+      <c r="C728" s="8"/>
     </row>
     <row r="729" ht="14.25" customHeight="1">
-      <c r="C729" s="7"/>
+      <c r="C729" s="8"/>
     </row>
     <row r="730" ht="14.25" customHeight="1">
-      <c r="C730" s="7"/>
+      <c r="C730" s="8"/>
     </row>
     <row r="731" ht="14.25" customHeight="1">
-      <c r="C731" s="7"/>
+      <c r="C731" s="8"/>
     </row>
     <row r="732" ht="14.25" customHeight="1">
-      <c r="C732" s="7"/>
+      <c r="C732" s="8"/>
     </row>
     <row r="733" ht="14.25" customHeight="1">
-      <c r="C733" s="7"/>
+      <c r="C733" s="8"/>
     </row>
     <row r="734" ht="14.25" customHeight="1">
-      <c r="C734" s="7"/>
+      <c r="C734" s="8"/>
     </row>
     <row r="735" ht="14.25" customHeight="1">
-      <c r="C735" s="7"/>
+      <c r="C735" s="8"/>
     </row>
     <row r="736" ht="14.25" customHeight="1">
-      <c r="C736" s="7"/>
+      <c r="C736" s="8"/>
     </row>
     <row r="737" ht="14.25" customHeight="1">
-      <c r="C737" s="7"/>
+      <c r="C737" s="8"/>
     </row>
     <row r="738" ht="14.25" customHeight="1">
-      <c r="C738" s="7"/>
+      <c r="C738" s="8"/>
     </row>
     <row r="739" ht="14.25" customHeight="1">
-      <c r="C739" s="7"/>
+      <c r="C739" s="8"/>
     </row>
     <row r="740" ht="14.25" customHeight="1">
-      <c r="C740" s="7"/>
+      <c r="C740" s="8"/>
     </row>
     <row r="741" ht="14.25" customHeight="1">
-      <c r="C741" s="7"/>
+      <c r="C741" s="8"/>
     </row>
     <row r="742" ht="14.25" customHeight="1">
-      <c r="C742" s="7"/>
+      <c r="C742" s="8"/>
     </row>
     <row r="743" ht="14.25" customHeight="1">
-      <c r="C743" s="7"/>
+      <c r="C743" s="8"/>
     </row>
     <row r="744" ht="14.25" customHeight="1">
-      <c r="C744" s="7"/>
+      <c r="C744" s="8"/>
     </row>
     <row r="745" ht="14.25" customHeight="1">
-      <c r="C745" s="7"/>
+      <c r="C745" s="8"/>
     </row>
     <row r="746" ht="14.25" customHeight="1">
-      <c r="C746" s="7"/>
+      <c r="C746" s="8"/>
     </row>
     <row r="747" ht="14.25" customHeight="1">
-      <c r="C747" s="7"/>
+      <c r="C747" s="8"/>
     </row>
     <row r="748" ht="14.25" customHeight="1">
-      <c r="C748" s="7"/>
+      <c r="C748" s="8"/>
     </row>
     <row r="749" ht="14.25" customHeight="1">
-      <c r="C749" s="7"/>
+      <c r="C749" s="8"/>
     </row>
     <row r="750" ht="14.25" customHeight="1">
-      <c r="C750" s="7"/>
+      <c r="C750" s="8"/>
     </row>
     <row r="751" ht="14.25" customHeight="1">
-      <c r="C751" s="7"/>
+      <c r="C751" s="8"/>
     </row>
     <row r="752" ht="14.25" customHeight="1">
-      <c r="C752" s="7"/>
+      <c r="C752" s="8"/>
     </row>
     <row r="753" ht="14.25" customHeight="1">
-      <c r="C753" s="7"/>
+      <c r="C753" s="8"/>
     </row>
     <row r="754" ht="14.25" customHeight="1">
-      <c r="C754" s="7"/>
+      <c r="C754" s="8"/>
     </row>
     <row r="755" ht="14.25" customHeight="1">
-      <c r="C755" s="7"/>
+      <c r="C755" s="8"/>
     </row>
     <row r="756" ht="14.25" customHeight="1">
-      <c r="C756" s="7"/>
+      <c r="C756" s="8"/>
     </row>
     <row r="757" ht="14.25" customHeight="1">
-      <c r="C757" s="7"/>
+      <c r="C757" s="8"/>
     </row>
     <row r="758" ht="14.25" customHeight="1">
-      <c r="C758" s="7"/>
+      <c r="C758" s="8"/>
     </row>
     <row r="759" ht="14.25" customHeight="1">
-      <c r="C759" s="7"/>
+      <c r="C759" s="8"/>
     </row>
     <row r="760" ht="14.25" customHeight="1">
-      <c r="C760" s="7"/>
+      <c r="C760" s="8"/>
     </row>
     <row r="761" ht="14.25" customHeight="1">
-      <c r="C761" s="7"/>
+      <c r="C761" s="8"/>
     </row>
     <row r="762" ht="14.25" customHeight="1">
-      <c r="C762" s="7"/>
+      <c r="C762" s="8"/>
     </row>
     <row r="763" ht="14.25" customHeight="1">
-      <c r="C763" s="7"/>
+      <c r="C763" s="8"/>
     </row>
     <row r="764" ht="14.25" customHeight="1">
-      <c r="C764" s="7"/>
+      <c r="C764" s="8"/>
     </row>
     <row r="765" ht="14.25" customHeight="1">
-      <c r="C765" s="7"/>
+      <c r="C765" s="8"/>
     </row>
     <row r="766" ht="14.25" customHeight="1">
-      <c r="C766" s="7"/>
+      <c r="C766" s="8"/>
     </row>
     <row r="767" ht="14.25" customHeight="1">
-      <c r="C767" s="7"/>
+      <c r="C767" s="8"/>
     </row>
     <row r="768" ht="14.25" customHeight="1">
-      <c r="C768" s="7"/>
+      <c r="C768" s="8"/>
     </row>
     <row r="769" ht="14.25" customHeight="1">
-      <c r="C769" s="7"/>
+      <c r="C769" s="8"/>
     </row>
     <row r="770" ht="14.25" customHeight="1">
-      <c r="C770" s="7"/>
+      <c r="C770" s="8"/>
     </row>
     <row r="771" ht="14.25" customHeight="1">
-      <c r="C771" s="7"/>
+      <c r="C771" s="8"/>
     </row>
     <row r="772" ht="14.25" customHeight="1">
-      <c r="C772" s="7"/>
+      <c r="C772" s="8"/>
     </row>
     <row r="773" ht="14.25" customHeight="1">
-      <c r="C773" s="7"/>
+      <c r="C773" s="8"/>
     </row>
     <row r="774" ht="14.25" customHeight="1">
-      <c r="C774" s="7"/>
+      <c r="C774" s="8"/>
     </row>
     <row r="775" ht="14.25" customHeight="1">
-      <c r="C775" s="7"/>
+      <c r="C775" s="8"/>
     </row>
     <row r="776" ht="14.25" customHeight="1">
-      <c r="C776" s="7"/>
+      <c r="C776" s="8"/>
     </row>
     <row r="777" ht="14.25" customHeight="1">
-      <c r="C777" s="7"/>
+      <c r="C777" s="8"/>
     </row>
     <row r="778" ht="14.25" customHeight="1">
-      <c r="C778" s="7"/>
+      <c r="C778" s="8"/>
     </row>
     <row r="779" ht="14.25" customHeight="1">
-      <c r="C779" s="7"/>
+      <c r="C779" s="8"/>
     </row>
     <row r="780" ht="14.25" customHeight="1">
-      <c r="C780" s="7"/>
+      <c r="C780" s="8"/>
     </row>
     <row r="781" ht="14.25" customHeight="1">
-      <c r="C781" s="7"/>
+      <c r="C781" s="8"/>
     </row>
     <row r="782" ht="14.25" customHeight="1">
-      <c r="C782" s="7"/>
+      <c r="C782" s="8"/>
     </row>
     <row r="783" ht="14.25" customHeight="1">
-      <c r="C783" s="7"/>
+      <c r="C783" s="8"/>
     </row>
     <row r="784" ht="14.25" customHeight="1">
-      <c r="C784" s="7"/>
+      <c r="C784" s="8"/>
     </row>
     <row r="785" ht="14.25" customHeight="1">
-      <c r="C785" s="7"/>
+      <c r="C785" s="8"/>
     </row>
     <row r="786" ht="14.25" customHeight="1">
-      <c r="C786" s="7"/>
+      <c r="C786" s="8"/>
     </row>
     <row r="787" ht="14.25" customHeight="1">
-      <c r="C787" s="7"/>
+      <c r="C787" s="8"/>
     </row>
     <row r="788" ht="14.25" customHeight="1">
-      <c r="C788" s="7"/>
+      <c r="C788" s="8"/>
     </row>
     <row r="789" ht="14.25" customHeight="1">
-      <c r="C789" s="7"/>
+      <c r="C789" s="8"/>
     </row>
     <row r="790" ht="14.25" customHeight="1">
-      <c r="C790" s="7"/>
+      <c r="C790" s="8"/>
     </row>
     <row r="791" ht="14.25" customHeight="1">
-      <c r="C791" s="7"/>
+      <c r="C791" s="8"/>
     </row>
     <row r="792" ht="14.25" customHeight="1">
-      <c r="C792" s="7"/>
+      <c r="C792" s="8"/>
     </row>
     <row r="793" ht="14.25" customHeight="1">
-      <c r="C793" s="7"/>
+      <c r="C793" s="8"/>
     </row>
     <row r="794" ht="14.25" customHeight="1">
-      <c r="C794" s="7"/>
+      <c r="C794" s="8"/>
     </row>
     <row r="795" ht="14.25" customHeight="1">
-      <c r="C795" s="7"/>
+      <c r="C795" s="8"/>
     </row>
     <row r="796" ht="14.25" customHeight="1">
-      <c r="C796" s="7"/>
+      <c r="C796" s="8"/>
     </row>
     <row r="797" ht="14.25" customHeight="1">
-      <c r="C797" s="7"/>
+      <c r="C797" s="8"/>
     </row>
     <row r="798" ht="14.25" customHeight="1">
-      <c r="C798" s="7"/>
+      <c r="C798" s="8"/>
     </row>
     <row r="799" ht="14.25" customHeight="1">
-      <c r="C799" s="7"/>
+      <c r="C799" s="8"/>
     </row>
     <row r="800" ht="14.25" customHeight="1">
-      <c r="C800" s="7"/>
+      <c r="C800" s="8"/>
     </row>
     <row r="801" ht="14.25" customHeight="1">
-      <c r="C801" s="7"/>
+      <c r="C801" s="8"/>
     </row>
     <row r="802" ht="14.25" customHeight="1">
-      <c r="C802" s="7"/>
+      <c r="C802" s="8"/>
     </row>
     <row r="803" ht="14.25" customHeight="1">
-      <c r="C803" s="7"/>
+      <c r="C803" s="8"/>
     </row>
     <row r="804" ht="14.25" customHeight="1">
-      <c r="C804" s="7"/>
+      <c r="C804" s="8"/>
     </row>
     <row r="805" ht="14.25" customHeight="1">
-      <c r="C805" s="7"/>
+      <c r="C805" s="8"/>
     </row>
     <row r="806" ht="14.25" customHeight="1">
-      <c r="C806" s="7"/>
+      <c r="C806" s="8"/>
     </row>
     <row r="807" ht="14.25" customHeight="1">
-      <c r="C807" s="7"/>
+      <c r="C807" s="8"/>
     </row>
     <row r="808" ht="14.25" customHeight="1">
-      <c r="C808" s="7"/>
+      <c r="C808" s="8"/>
     </row>
     <row r="809" ht="14.25" customHeight="1">
-      <c r="C809" s="7"/>
+      <c r="C809" s="8"/>
     </row>
     <row r="810" ht="14.25" customHeight="1">
-      <c r="C810" s="7"/>
+      <c r="C810" s="8"/>
     </row>
     <row r="811" ht="14.25" customHeight="1">
-      <c r="C811" s="7"/>
+      <c r="C811" s="8"/>
     </row>
     <row r="812" ht="14.25" customHeight="1">
-      <c r="C812" s="7"/>
+      <c r="C812" s="8"/>
     </row>
     <row r="813" ht="14.25" customHeight="1">
-      <c r="C813" s="7"/>
+      <c r="C813" s="8"/>
     </row>
     <row r="814" ht="14.25" customHeight="1">
-      <c r="C814" s="7"/>
+      <c r="C814" s="8"/>
     </row>
     <row r="815" ht="14.25" customHeight="1">
-      <c r="C815" s="7"/>
+      <c r="C815" s="8"/>
     </row>
     <row r="816" ht="14.25" customHeight="1">
-      <c r="C816" s="7"/>
+      <c r="C816" s="8"/>
     </row>
     <row r="817" ht="14.25" customHeight="1">
-      <c r="C817" s="7"/>
+      <c r="C817" s="8"/>
     </row>
     <row r="818" ht="14.25" customHeight="1">
-      <c r="C818" s="7"/>
+      <c r="C818" s="8"/>
     </row>
     <row r="819" ht="14.25" customHeight="1">
-      <c r="C819" s="7"/>
+      <c r="C819" s="8"/>
     </row>
     <row r="820" ht="14.25" customHeight="1">
-      <c r="C820" s="7"/>
+      <c r="C820" s="8"/>
     </row>
     <row r="821" ht="14.25" customHeight="1">
-      <c r="C821" s="7"/>
+      <c r="C821" s="8"/>
     </row>
     <row r="822" ht="14.25" customHeight="1">
-      <c r="C822" s="7"/>
+      <c r="C822" s="8"/>
     </row>
     <row r="823" ht="14.25" customHeight="1">
-      <c r="C823" s="7"/>
+      <c r="C823" s="8"/>
     </row>
     <row r="824" ht="14.25" customHeight="1">
-      <c r="C824" s="7"/>
+      <c r="C824" s="8"/>
     </row>
     <row r="825" ht="14.25" customHeight="1">
-      <c r="C825" s="7"/>
+      <c r="C825" s="8"/>
     </row>
     <row r="826" ht="14.25" customHeight="1">
-      <c r="C826" s="7"/>
+      <c r="C826" s="8"/>
     </row>
     <row r="827" ht="14.25" customHeight="1">
-      <c r="C827" s="7"/>
+      <c r="C827" s="8"/>
     </row>
     <row r="828" ht="14.25" customHeight="1">
-      <c r="C828" s="7"/>
+      <c r="C828" s="8"/>
     </row>
     <row r="829" ht="14.25" customHeight="1">
-      <c r="C829" s="7"/>
+      <c r="C829" s="8"/>
     </row>
     <row r="830" ht="14.25" customHeight="1">
-      <c r="C830" s="7"/>
+      <c r="C830" s="8"/>
     </row>
     <row r="831" ht="14.25" customHeight="1">
-      <c r="C831" s="7"/>
+      <c r="C831" s="8"/>
     </row>
     <row r="832" ht="14.25" customHeight="1">
-      <c r="C832" s="7"/>
+      <c r="C832" s="8"/>
     </row>
     <row r="833" ht="14.25" customHeight="1">
-      <c r="C833" s="7"/>
+      <c r="C833" s="8"/>
     </row>
     <row r="834" ht="14.25" customHeight="1">
-      <c r="C834" s="7"/>
+      <c r="C834" s="8"/>
     </row>
     <row r="835" ht="14.25" customHeight="1">
-      <c r="C835" s="7"/>
+      <c r="C835" s="8"/>
     </row>
     <row r="836" ht="14.25" customHeight="1">
-      <c r="C836" s="7"/>
+      <c r="C836" s="8"/>
     </row>
     <row r="837" ht="14.25" customHeight="1">
-      <c r="C837" s="7"/>
+      <c r="C837" s="8"/>
     </row>
     <row r="838" ht="14.25" customHeight="1">
-      <c r="C838" s="7"/>
+      <c r="C838" s="8"/>
     </row>
     <row r="839" ht="14.25" customHeight="1">
-      <c r="C839" s="7"/>
+      <c r="C839" s="8"/>
     </row>
     <row r="840" ht="14.25" customHeight="1">
-      <c r="C840" s="7"/>
+      <c r="C840" s="8"/>
     </row>
     <row r="841" ht="14.25" customHeight="1">
-      <c r="C841" s="7"/>
+      <c r="C841" s="8"/>
     </row>
     <row r="842" ht="14.25" customHeight="1">
-      <c r="C842" s="7"/>
+      <c r="C842" s="8"/>
     </row>
     <row r="843" ht="14.25" customHeight="1">
-      <c r="C843" s="7"/>
+      <c r="C843" s="8"/>
     </row>
     <row r="844" ht="14.25" customHeight="1">
-      <c r="C844" s="7"/>
+      <c r="C844" s="8"/>
     </row>
     <row r="845" ht="14.25" customHeight="1">
-      <c r="C845" s="7"/>
+      <c r="C845" s="8"/>
     </row>
     <row r="846" ht="14.25" customHeight="1">
-      <c r="C846" s="7"/>
+      <c r="C846" s="8"/>
     </row>
     <row r="847" ht="14.25" customHeight="1">
-      <c r="C847" s="7"/>
+      <c r="C847" s="8"/>
     </row>
     <row r="848" ht="14.25" customHeight="1">
-      <c r="C848" s="7"/>
+      <c r="C848" s="8"/>
     </row>
     <row r="849" ht="14.25" customHeight="1">
-      <c r="C849" s="7"/>
+      <c r="C849" s="8"/>
     </row>
     <row r="850" ht="14.25" customHeight="1">
-      <c r="C850" s="7"/>
+      <c r="C850" s="8"/>
     </row>
     <row r="851" ht="14.25" customHeight="1">
-      <c r="C851" s="7"/>
+      <c r="C851" s="8"/>
     </row>
     <row r="852" ht="14.25" customHeight="1">
-      <c r="C852" s="7"/>
+      <c r="C852" s="8"/>
     </row>
     <row r="853" ht="14.25" customHeight="1">
-      <c r="C853" s="7"/>
+      <c r="C853" s="8"/>
     </row>
     <row r="854" ht="14.25" customHeight="1">
-      <c r="C854" s="7"/>
+      <c r="C854" s="8"/>
     </row>
     <row r="855" ht="14.25" customHeight="1">
-      <c r="C855" s="7"/>
+      <c r="C855" s="8"/>
     </row>
     <row r="856" ht="14.25" customHeight="1">
-      <c r="C856" s="7"/>
+      <c r="C856" s="8"/>
     </row>
     <row r="857" ht="14.25" customHeight="1">
-      <c r="C857" s="7"/>
+      <c r="C857" s="8"/>
     </row>
     <row r="858" ht="14.25" customHeight="1">
-      <c r="C858" s="7"/>
+      <c r="C858" s="8"/>
     </row>
     <row r="859" ht="14.25" customHeight="1">
-      <c r="C859" s="7"/>
+      <c r="C859" s="8"/>
     </row>
     <row r="860" ht="14.25" customHeight="1">
-      <c r="C860" s="7"/>
+      <c r="C860" s="8"/>
     </row>
     <row r="861" ht="14.25" customHeight="1">
-      <c r="C861" s="7"/>
+      <c r="C861" s="8"/>
     </row>
     <row r="862" ht="14.25" customHeight="1">
-      <c r="C862" s="7"/>
+      <c r="C862" s="8"/>
     </row>
     <row r="863" ht="14.25" customHeight="1">
-      <c r="C863" s="7"/>
+      <c r="C863" s="8"/>
     </row>
     <row r="864" ht="14.25" customHeight="1">
-      <c r="C864" s="7"/>
+      <c r="C864" s="8"/>
     </row>
     <row r="865" ht="14.25" customHeight="1">
-      <c r="C865" s="7"/>
+      <c r="C865" s="8"/>
     </row>
     <row r="866" ht="14.25" customHeight="1">
-      <c r="C866" s="7"/>
+      <c r="C866" s="8"/>
     </row>
     <row r="867" ht="14.25" customHeight="1">
-      <c r="C867" s="7"/>
+      <c r="C867" s="8"/>
     </row>
     <row r="868" ht="14.25" customHeight="1">
-      <c r="C868" s="7"/>
+      <c r="C868" s="8"/>
     </row>
     <row r="869" ht="14.25" customHeight="1">
-      <c r="C869" s="7"/>
+      <c r="C869" s="8"/>
     </row>
     <row r="870" ht="14.25" customHeight="1">
-      <c r="C870" s="7"/>
+      <c r="C870" s="8"/>
     </row>
     <row r="871" ht="14.25" customHeight="1">
-      <c r="C871" s="7"/>
+      <c r="C871" s="8"/>
     </row>
     <row r="872" ht="14.25" customHeight="1">
-      <c r="C872" s="7"/>
+      <c r="C872" s="8"/>
     </row>
     <row r="873" ht="14.25" customHeight="1">
-      <c r="C873" s="7"/>
+      <c r="C873" s="8"/>
     </row>
     <row r="874" ht="14.25" customHeight="1">
-      <c r="C874" s="7"/>
+      <c r="C874" s="8"/>
     </row>
     <row r="875" ht="14.25" customHeight="1">
-      <c r="C875" s="7"/>
+      <c r="C875" s="8"/>
     </row>
     <row r="876" ht="14.25" customHeight="1">
-      <c r="C876" s="7"/>
+      <c r="C876" s="8"/>
     </row>
     <row r="877" ht="14.25" customHeight="1">
-      <c r="C877" s="7"/>
+      <c r="C877" s="8"/>
     </row>
     <row r="878" ht="14.25" customHeight="1">
-      <c r="C878" s="7"/>
+      <c r="C878" s="8"/>
     </row>
     <row r="879" ht="14.25" customHeight="1">
-      <c r="C879" s="7"/>
+      <c r="C879" s="8"/>
     </row>
     <row r="880" ht="14.25" customHeight="1">
-      <c r="C880" s="7"/>
+      <c r="C880" s="8"/>
     </row>
     <row r="881" ht="14.25" customHeight="1">
-      <c r="C881" s="7"/>
+      <c r="C881" s="8"/>
     </row>
     <row r="882" ht="14.25" customHeight="1">
-      <c r="C882" s="7"/>
+      <c r="C882" s="8"/>
     </row>
     <row r="883" ht="14.25" customHeight="1">
-      <c r="C883" s="7"/>
+      <c r="C883" s="8"/>
     </row>
     <row r="884" ht="14.25" customHeight="1">
-      <c r="C884" s="7"/>
+      <c r="C884" s="8"/>
     </row>
     <row r="885" ht="14.25" customHeight="1">
-      <c r="C885" s="7"/>
+      <c r="C885" s="8"/>
     </row>
     <row r="886" ht="14.25" customHeight="1">
-      <c r="C886" s="7"/>
+      <c r="C886" s="8"/>
     </row>
     <row r="887" ht="14.25" customHeight="1">
-      <c r="C887" s="7"/>
+      <c r="C887" s="8"/>
     </row>
     <row r="888" ht="14.25" customHeight="1">
-      <c r="C888" s="7"/>
+      <c r="C888" s="8"/>
     </row>
     <row r="889" ht="14.25" customHeight="1">
-      <c r="C889" s="7"/>
+      <c r="C889" s="8"/>
     </row>
     <row r="890" ht="14.25" customHeight="1">
-      <c r="C890" s="7"/>
+      <c r="C890" s="8"/>
     </row>
     <row r="891" ht="14.25" customHeight="1">
-      <c r="C891" s="7"/>
+      <c r="C891" s="8"/>
     </row>
     <row r="892" ht="14.25" customHeight="1">
-      <c r="C892" s="7"/>
+      <c r="C892" s="8"/>
     </row>
     <row r="893" ht="14.25" customHeight="1">
-      <c r="C893" s="7"/>
+      <c r="C893" s="8"/>
     </row>
     <row r="894" ht="14.25" customHeight="1">
-      <c r="C894" s="7"/>
+      <c r="C894" s="8"/>
     </row>
     <row r="895" ht="14.25" customHeight="1">
-      <c r="C895" s="7"/>
+      <c r="C895" s="8"/>
     </row>
     <row r="896" ht="14.25" customHeight="1">
-      <c r="C896" s="7"/>
+      <c r="C896" s="8"/>
     </row>
     <row r="897" ht="14.25" customHeight="1">
-      <c r="C897" s="7"/>
+      <c r="C897" s="8"/>
     </row>
     <row r="898" ht="14.25" customHeight="1">
-      <c r="C898" s="7"/>
+      <c r="C898" s="8"/>
     </row>
     <row r="899" ht="14.25" customHeight="1">
-      <c r="C899" s="7"/>
+      <c r="C899" s="8"/>
     </row>
     <row r="900" ht="14.25" customHeight="1">
-      <c r="C900" s="7"/>
+      <c r="C900" s="8"/>
     </row>
     <row r="901" ht="14.25" customHeight="1">
-      <c r="C901" s="7"/>
+      <c r="C901" s="8"/>
     </row>
     <row r="902" ht="14.25" customHeight="1">
-      <c r="C902" s="7"/>
+      <c r="C902" s="8"/>
     </row>
     <row r="903" ht="14.25" customHeight="1">
-      <c r="C903" s="7"/>
+      <c r="C903" s="8"/>
     </row>
     <row r="904" ht="14.25" customHeight="1">
-      <c r="C904" s="7"/>
+      <c r="C904" s="8"/>
     </row>
     <row r="905" ht="14.25" customHeight="1">
-      <c r="C905" s="7"/>
+      <c r="C905" s="8"/>
     </row>
     <row r="906" ht="14.25" customHeight="1">
-      <c r="C906" s="7"/>
+      <c r="C906" s="8"/>
     </row>
     <row r="907" ht="14.25" customHeight="1">
-      <c r="C907" s="7"/>
+      <c r="C907" s="8"/>
     </row>
     <row r="908" ht="14.25" customHeight="1">
-      <c r="C908" s="7"/>
+      <c r="C908" s="8"/>
     </row>
     <row r="909" ht="14.25" customHeight="1">
-      <c r="C909" s="7"/>
+      <c r="C909" s="8"/>
     </row>
     <row r="910" ht="14.25" customHeight="1">
-      <c r="C910" s="7"/>
+      <c r="C910" s="8"/>
     </row>
     <row r="911" ht="14.25" customHeight="1">
-      <c r="C911" s="7"/>
+      <c r="C911" s="8"/>
     </row>
     <row r="912" ht="14.25" customHeight="1">
-      <c r="C912" s="7"/>
+      <c r="C912" s="8"/>
     </row>
     <row r="913" ht="14.25" customHeight="1">
-      <c r="C913" s="7"/>
+      <c r="C913" s="8"/>
     </row>
     <row r="914" ht="14.25" customHeight="1">
-      <c r="C914" s="7"/>
+      <c r="C914" s="8"/>
     </row>
     <row r="915" ht="14.25" customHeight="1">
-      <c r="C915" s="7"/>
+      <c r="C915" s="8"/>
     </row>
     <row r="916" ht="14.25" customHeight="1">
-      <c r="C916" s="7"/>
+      <c r="C916" s="8"/>
     </row>
     <row r="917" ht="14.25" customHeight="1">
-      <c r="C917" s="7"/>
+      <c r="C917" s="8"/>
     </row>
     <row r="918" ht="14.25" customHeight="1">
-      <c r="C918" s="7"/>
+      <c r="C918" s="8"/>
     </row>
     <row r="919" ht="14.25" customHeight="1">
-      <c r="C919" s="7"/>
+      <c r="C919" s="8"/>
     </row>
     <row r="920" ht="14.25" customHeight="1">
-      <c r="C920" s="7"/>
+      <c r="C920" s="8"/>
     </row>
     <row r="921" ht="14.25" customHeight="1">
-      <c r="C921" s="7"/>
+      <c r="C921" s="8"/>
     </row>
     <row r="922" ht="14.25" customHeight="1">
-      <c r="C922" s="7"/>
+      <c r="C922" s="8"/>
     </row>
     <row r="923" ht="14.25" customHeight="1">
-      <c r="C923" s="7"/>
+      <c r="C923" s="8"/>
     </row>
     <row r="924" ht="14.25" customHeight="1">
-      <c r="C924" s="7"/>
+      <c r="C924" s="8"/>
     </row>
     <row r="925" ht="14.25" customHeight="1">
-      <c r="C925" s="7"/>
+      <c r="C925" s="8"/>
     </row>
     <row r="926" ht="14.25" customHeight="1">
-      <c r="C926" s="7"/>
+      <c r="C926" s="8"/>
     </row>
     <row r="927" ht="14.25" customHeight="1">
-      <c r="C927" s="7"/>
+      <c r="C927" s="8"/>
     </row>
     <row r="928" ht="14.25" customHeight="1">
-      <c r="C928" s="7"/>
+      <c r="C928" s="8"/>
     </row>
     <row r="929" ht="14.25" customHeight="1">
-      <c r="C929" s="7"/>
+      <c r="C929" s="8"/>
     </row>
     <row r="930" ht="14.25" customHeight="1">
-      <c r="C930" s="7"/>
+      <c r="C930" s="8"/>
     </row>
     <row r="931" ht="14.25" customHeight="1">
-      <c r="C931" s="7"/>
+      <c r="C931" s="8"/>
     </row>
     <row r="932" ht="14.25" customHeight="1">
-      <c r="C932" s="7"/>
+      <c r="C932" s="8"/>
     </row>
     <row r="933" ht="14.25" customHeight="1">
-      <c r="C933" s="7"/>
+      <c r="C933" s="8"/>
     </row>
     <row r="934" ht="14.25" customHeight="1">
-      <c r="C934" s="7"/>
+      <c r="C934" s="8"/>
     </row>
     <row r="935" ht="14.25" customHeight="1">
-      <c r="C935" s="7"/>
+      <c r="C935" s="8"/>
     </row>
     <row r="936" ht="14.25" customHeight="1">
-      <c r="C936" s="7"/>
+      <c r="C936" s="8"/>
     </row>
     <row r="937" ht="14.25" customHeight="1">
-      <c r="C937" s="7"/>
+      <c r="C937" s="8"/>
     </row>
     <row r="938" ht="14.25" customHeight="1">
-      <c r="C938" s="7"/>
+      <c r="C938" s="8"/>
     </row>
     <row r="939" ht="14.25" customHeight="1">
-      <c r="C939" s="7"/>
+      <c r="C939" s="8"/>
     </row>
     <row r="940" ht="14.25" customHeight="1">
-      <c r="C940" s="7"/>
+      <c r="C940" s="8"/>
     </row>
     <row r="941" ht="14.25" customHeight="1">
-      <c r="C941" s="7"/>
+      <c r="C941" s="8"/>
     </row>
     <row r="942" ht="14.25" customHeight="1">
-      <c r="C942" s="7"/>
+      <c r="C942" s="8"/>
     </row>
     <row r="943" ht="14.25" customHeight="1">
-      <c r="C943" s="7"/>
+      <c r="C943" s="8"/>
     </row>
     <row r="944" ht="14.25" customHeight="1">
-      <c r="C944" s="7"/>
+      <c r="C944" s="8"/>
     </row>
     <row r="945" ht="14.25" customHeight="1">
-      <c r="C945" s="7"/>
+      <c r="C945" s="8"/>
     </row>
     <row r="946" ht="14.25" customHeight="1">
-      <c r="C946" s="7"/>
+      <c r="C946" s="8"/>
     </row>
     <row r="947" ht="14.25" customHeight="1">
-      <c r="C947" s="7"/>
+      <c r="C947" s="8"/>
     </row>
     <row r="948" ht="14.25" customHeight="1">
-      <c r="C948" s="7"/>
+      <c r="C948" s="8"/>
     </row>
     <row r="949" ht="14.25" customHeight="1">
-      <c r="C949" s="7"/>
+      <c r="C949" s="8"/>
     </row>
     <row r="950" ht="14.25" customHeight="1">
-      <c r="C950" s="7"/>
+      <c r="C950" s="8"/>
     </row>
     <row r="951" ht="14.25" customHeight="1">
-      <c r="C951" s="7"/>
+      <c r="C951" s="8"/>
     </row>
     <row r="952" ht="14.25" customHeight="1">
-      <c r="C952" s="7"/>
+      <c r="C952" s="8"/>
     </row>
     <row r="953" ht="14.25" customHeight="1">
-      <c r="C953" s="7"/>
+      <c r="C953" s="8"/>
     </row>
     <row r="954" ht="14.25" customHeight="1">
-      <c r="C954" s="7"/>
+      <c r="C954" s="8"/>
     </row>
     <row r="955" ht="14.25" customHeight="1">
-      <c r="C955" s="7"/>
+      <c r="C955" s="8"/>
     </row>
     <row r="956" ht="14.25" customHeight="1">
-      <c r="C956" s="7"/>
+      <c r="C956" s="8"/>
     </row>
     <row r="957" ht="14.25" customHeight="1">
-      <c r="C957" s="7"/>
+      <c r="C957" s="8"/>
     </row>
     <row r="958" ht="14.25" customHeight="1">
-      <c r="C958" s="7"/>
+      <c r="C958" s="8"/>
     </row>
     <row r="959" ht="14.25" customHeight="1">
-      <c r="C959" s="7"/>
+      <c r="C959" s="8"/>
     </row>
     <row r="960" ht="14.25" customHeight="1">
-      <c r="C960" s="7"/>
+      <c r="C960" s="8"/>
     </row>
     <row r="961" ht="14.25" customHeight="1">
-      <c r="C961" s="7"/>
+      <c r="C961" s="8"/>
     </row>
     <row r="962" ht="14.25" customHeight="1">
-      <c r="C962" s="7"/>
+      <c r="C962" s="8"/>
     </row>
     <row r="963" ht="14.25" customHeight="1">
-      <c r="C963" s="7"/>
+      <c r="C963" s="8"/>
     </row>
     <row r="964" ht="14.25" customHeight="1">
-      <c r="C964" s="7"/>
+      <c r="C964" s="8"/>
     </row>
     <row r="965" ht="14.25" customHeight="1">
-      <c r="C965" s="7"/>
+      <c r="C965" s="8"/>
     </row>
     <row r="966" ht="14.25" customHeight="1">
-      <c r="C966" s="7"/>
+      <c r="C966" s="8"/>
     </row>
     <row r="967" ht="14.25" customHeight="1">
-      <c r="C967" s="7"/>
+      <c r="C967" s="8"/>
     </row>
     <row r="968" ht="14.25" customHeight="1">
-      <c r="C968" s="7"/>
+      <c r="C968" s="8"/>
     </row>
     <row r="969" ht="14.25" customHeight="1">
-      <c r="C969" s="7"/>
+      <c r="C969" s="8"/>
     </row>
     <row r="970" ht="14.25" customHeight="1">
-      <c r="C970" s="7"/>
+      <c r="C970" s="8"/>
     </row>
     <row r="971" ht="14.25" customHeight="1">
-      <c r="C971" s="7"/>
+      <c r="C971" s="8"/>
     </row>
     <row r="972" ht="14.25" customHeight="1">
-      <c r="C972" s="7"/>
+      <c r="C972" s="8"/>
     </row>
     <row r="973" ht="14.25" customHeight="1">
-      <c r="C973" s="7"/>
+      <c r="C973" s="8"/>
     </row>
     <row r="974" ht="14.25" customHeight="1">
-      <c r="C974" s="7"/>
+      <c r="C974" s="8"/>
     </row>
     <row r="975" ht="14.25" customHeight="1">
-      <c r="C975" s="7"/>
+      <c r="C975" s="8"/>
     </row>
     <row r="976" ht="14.25" customHeight="1">
-      <c r="C976" s="7"/>
+      <c r="C976" s="8"/>
     </row>
     <row r="977" ht="14.25" customHeight="1">
-      <c r="C977" s="7"/>
+      <c r="C977" s="8"/>
     </row>
     <row r="978" ht="14.25" customHeight="1">
-      <c r="C978" s="7"/>
+      <c r="C978" s="8"/>
     </row>
     <row r="979" ht="14.25" customHeight="1">
-      <c r="C979" s="7"/>
+      <c r="C979" s="8"/>
     </row>
     <row r="980" ht="14.25" customHeight="1">
-      <c r="C980" s="7"/>
+      <c r="C980" s="8"/>
     </row>
     <row r="981" ht="14.25" customHeight="1">
-      <c r="C981" s="7"/>
+      <c r="C981" s="8"/>
     </row>
     <row r="982" ht="14.25" customHeight="1">
-      <c r="C982" s="7"/>
+      <c r="C982" s="8"/>
     </row>
     <row r="983" ht="14.25" customHeight="1">
-      <c r="C983" s="7"/>
+      <c r="C983" s="8"/>
     </row>
     <row r="984" ht="14.25" customHeight="1">
-      <c r="C984" s="7"/>
+      <c r="C984" s="8"/>
     </row>
     <row r="985" ht="14.25" customHeight="1">
-      <c r="C985" s="7"/>
+      <c r="C985" s="8"/>
     </row>
     <row r="986" ht="14.25" customHeight="1">
-      <c r="C986" s="7"/>
+      <c r="C986" s="8"/>
     </row>
     <row r="987" ht="14.25" customHeight="1">
-      <c r="C987" s="7"/>
+      <c r="C987" s="8"/>
     </row>
     <row r="988" ht="14.25" customHeight="1">
-      <c r="C988" s="7"/>
+      <c r="C988" s="8"/>
     </row>
     <row r="989" ht="14.25" customHeight="1">
-      <c r="C989" s="7"/>
+      <c r="C989" s="8"/>
     </row>
     <row r="990" ht="14.25" customHeight="1">
-      <c r="C990" s="7"/>
+      <c r="C990" s="8"/>
     </row>
     <row r="991" ht="14.25" customHeight="1">
-      <c r="C991" s="7"/>
+      <c r="C991" s="8"/>
     </row>
     <row r="992" ht="14.25" customHeight="1">
-      <c r="C992" s="7"/>
+      <c r="C992" s="8"/>
     </row>
     <row r="993" ht="14.25" customHeight="1">
-      <c r="C993" s="7"/>
+      <c r="C993" s="8"/>
     </row>
     <row r="994" ht="14.25" customHeight="1">
-      <c r="C994" s="7"/>
+      <c r="C994" s="8"/>
     </row>
     <row r="995" ht="14.25" customHeight="1">
-      <c r="C995" s="7"/>
+      <c r="C995" s="8"/>
     </row>
     <row r="996" ht="14.25" customHeight="1">
-      <c r="C996" s="7"/>
+      <c r="C996" s="8"/>
     </row>
     <row r="997" ht="14.25" customHeight="1">
-      <c r="C997" s="7"/>
+      <c r="C997" s="8"/>
     </row>
     <row r="998" ht="14.25" customHeight="1">
-      <c r="C998" s="7"/>
+      <c r="C998" s="8"/>
     </row>
     <row r="999" ht="14.25" customHeight="1">
-      <c r="C999" s="7"/>
+      <c r="C999" s="8"/>
     </row>
     <row r="1000" ht="14.25" customHeight="1">
-      <c r="C1000" s="7"/>
+      <c r="C1000" s="8"/>
     </row>
   </sheetData>
   <printOptions/>
